--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_36.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3328978.437221636</v>
+        <v>3328591.726819838</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247834.3978644332</v>
+        <v>247834.3978644315</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>229.0561412922683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
@@ -722,10 +722,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>154.2219422117048</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,22 +741,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,10 +789,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>202.8349083178936</v>
+        <v>197.6126576240225</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -804,7 +804,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>12.59665167322035</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>243.4438153256983</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>197.5555659940159</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
         <v>411.9429466803539</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>22.13288548518099</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>137.45025063969</v>
@@ -987,13 +987,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>121.2647351827826</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>25.61724442263526</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>59.25110513825611</v>
+        <v>167.1394242513582</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>76.47369209631</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>194.3426657363197</v>
       </c>
       <c r="F8" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,7 +1224,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>134.8731973451911</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>122.1099138709762</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>11.57315202520402</v>
       </c>
       <c r="S10" t="n">
-        <v>166.7420538716369</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>276.6729386146302</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>264.6842555723119</v>
@@ -1379,16 +1379,16 @@
         <v>277.4076971867455</v>
       </c>
       <c r="F11" t="n">
-        <v>296.5795132747226</v>
+        <v>296.5795132747227</v>
       </c>
       <c r="G11" t="n">
-        <v>298.5127811721451</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H11" t="n">
         <v>216.0628961504551</v>
       </c>
       <c r="I11" t="n">
-        <v>57.6588612950832</v>
+        <v>57.65886129508323</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.92652010774086</v>
       </c>
       <c r="T11" t="n">
-        <v>108.6851912980902</v>
+        <v>42.19847532512799</v>
       </c>
       <c r="U11" t="n">
-        <v>138.9063174149371</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V11" t="n">
         <v>220.1793158548093</v>
       </c>
       <c r="W11" t="n">
-        <v>245.4794153327662</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X11" t="n">
-        <v>4.943136881857594</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>276.1762713617117</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>39.19800413111683</v>
       </c>
       <c r="S12" t="n">
         <v>151.2714921173871</v>
@@ -1503,7 +1503,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U12" t="n">
-        <v>187.8093861519483</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.28964948932727</v>
+        <v>68.2896494893273</v>
       </c>
       <c r="C13" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472779</v>
       </c>
       <c r="D13" t="n">
-        <v>38.11100873230615</v>
+        <v>38.11100873230617</v>
       </c>
       <c r="E13" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808562</v>
       </c>
       <c r="F13" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627193</v>
       </c>
       <c r="G13" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761977</v>
       </c>
       <c r="H13" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031019</v>
       </c>
       <c r="I13" t="n">
-        <v>29.33084844513995</v>
+        <v>29.33084844513954</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355685</v>
       </c>
       <c r="S13" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214059</v>
       </c>
       <c r="T13" t="n">
         <v>117.4169981442692</v>
@@ -1588,13 +1588,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W13" t="n">
-        <v>169.8646719595661</v>
+        <v>169.8646719595662</v>
       </c>
       <c r="X13" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y13" t="n">
-        <v>106.3846417114369</v>
+        <v>106.384641711437</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2.50039386554225</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E14" t="n">
         <v>277.4076971867455</v>
@@ -1622,10 +1622,10 @@
         <v>298.5127811721451</v>
       </c>
       <c r="H14" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.160862584172481e-12</v>
+        <v>57.65886129508318</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.92652010774083</v>
+        <v>71.92652010774081</v>
       </c>
       <c r="T14" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>138.9063174149371</v>
@@ -1673,7 +1673,7 @@
         <v>264.7796735655128</v>
       </c>
       <c r="Y14" t="n">
-        <v>267.2529986906305</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>39.19800413111683</v>
       </c>
       <c r="S15" t="n">
-        <v>122.7710337916623</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T15" t="n">
         <v>186.7982527956746</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.28964948932727</v>
+        <v>68.28964948932726</v>
       </c>
       <c r="C16" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472774</v>
       </c>
       <c r="D16" t="n">
-        <v>38.11100873230615</v>
+        <v>38.11100873230613</v>
       </c>
       <c r="E16" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808558</v>
       </c>
       <c r="F16" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627189</v>
       </c>
       <c r="G16" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761973</v>
       </c>
       <c r="H16" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031015</v>
       </c>
       <c r="I16" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513949</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.59639806355682</v>
+        <v>34.5963980635568</v>
       </c>
       <c r="S16" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214055</v>
       </c>
       <c r="T16" t="n">
         <v>117.4169981442692</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>219.099279429967</v>
+        <v>219.0992794299672</v>
       </c>
       <c r="C17" t="n">
-        <v>207.1105963876487</v>
+        <v>207.1105963876489</v>
       </c>
       <c r="D17" t="n">
-        <v>198.0919004321767</v>
+        <v>198.0919004321769</v>
       </c>
       <c r="E17" t="n">
-        <v>219.8340380020823</v>
+        <v>219.8340380020824</v>
       </c>
       <c r="F17" t="n">
-        <v>239.0058540900594</v>
+        <v>239.0058540900596</v>
       </c>
       <c r="G17" t="n">
-        <v>240.9391219874819</v>
+        <v>240.9391219874821</v>
       </c>
       <c r="H17" t="n">
-        <v>158.4892369657919</v>
+        <v>158.489236965792</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08520211041999914</v>
+        <v>0.08520211042016967</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.35286092307853</v>
+        <v>14.3528609230778</v>
       </c>
       <c r="T17" t="n">
-        <v>51.11153211342699</v>
+        <v>51.11153211342716</v>
       </c>
       <c r="U17" t="n">
-        <v>81.33265823027395</v>
+        <v>81.33265823027412</v>
       </c>
       <c r="V17" t="n">
-        <v>162.6056566701461</v>
+        <v>162.6056566701463</v>
       </c>
       <c r="W17" t="n">
-        <v>187.905756148103</v>
+        <v>187.9057561481032</v>
       </c>
       <c r="X17" t="n">
-        <v>207.2060143808496</v>
+        <v>207.2060143808498</v>
       </c>
       <c r="Y17" t="n">
-        <v>218.6026121770484</v>
+        <v>218.6026121770486</v>
       </c>
     </row>
     <row r="18">
@@ -1929,7 +1929,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>125.5693077588101</v>
       </c>
       <c r="F18" t="n">
         <v>133.3468600696244</v>
@@ -1941,7 +1941,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
-        <v>122.7710337916623</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
         <v>186.7982527956746</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.71599030466407</v>
+        <v>10.71599030466425</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>40.56884027747736</v>
+        <v>40.56884027747753</v>
       </c>
       <c r="T19" t="n">
-        <v>59.843338959606</v>
+        <v>59.84333895960617</v>
       </c>
       <c r="U19" t="n">
-        <v>113.3145124229192</v>
+        <v>113.3145124229193</v>
       </c>
       <c r="V19" t="n">
-        <v>87.12412670428967</v>
+        <v>87.12412670428984</v>
       </c>
       <c r="W19" t="n">
-        <v>112.2910127749029</v>
+        <v>112.2910127749031</v>
       </c>
       <c r="X19" t="n">
-        <v>57.93611477070604</v>
+        <v>57.93611477070621</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.81098252677373</v>
+        <v>48.8109825267739</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>219.099279429967</v>
+        <v>219.0992794299671</v>
       </c>
       <c r="C20" t="n">
-        <v>207.1105963876487</v>
+        <v>207.1105963876489</v>
       </c>
       <c r="D20" t="n">
-        <v>198.0919004321767</v>
+        <v>198.0919004321768</v>
       </c>
       <c r="E20" t="n">
-        <v>219.8340380020823</v>
+        <v>219.8340380020824</v>
       </c>
       <c r="F20" t="n">
-        <v>239.0058540900594</v>
+        <v>239.0058540900604</v>
       </c>
       <c r="G20" t="n">
-        <v>240.9391219874819</v>
+        <v>240.9391219874821</v>
       </c>
       <c r="H20" t="n">
-        <v>158.4892369657919</v>
+        <v>158.489236965792</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08520211041999914</v>
+        <v>0.08520211042011283</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.35286092307763</v>
+        <v>14.35286092307774</v>
       </c>
       <c r="T20" t="n">
-        <v>51.11153211342699</v>
+        <v>51.1115321134271</v>
       </c>
       <c r="U20" t="n">
-        <v>81.33265823027395</v>
+        <v>81.33265823027406</v>
       </c>
       <c r="V20" t="n">
-        <v>162.6056566701461</v>
+        <v>162.6056566701462</v>
       </c>
       <c r="W20" t="n">
-        <v>187.905756148103</v>
+        <v>187.9057561481031</v>
       </c>
       <c r="X20" t="n">
-        <v>207.2060143808496</v>
+        <v>207.2060143808498</v>
       </c>
       <c r="Y20" t="n">
-        <v>218.6026121770484</v>
+        <v>218.6026121770485</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>39.19800413111683</v>
       </c>
       <c r="S21" t="n">
-        <v>122.7710337916623</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T21" t="n">
         <v>186.7982527956746</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.71599030466407</v>
+        <v>10.71599030466419</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>40.56884027747736</v>
+        <v>40.56884027747748</v>
       </c>
       <c r="T22" t="n">
-        <v>59.843338959606</v>
+        <v>59.84333895960611</v>
       </c>
       <c r="U22" t="n">
-        <v>113.3145124229192</v>
+        <v>113.3145124229193</v>
       </c>
       <c r="V22" t="n">
-        <v>87.12412670428967</v>
+        <v>87.12412670428978</v>
       </c>
       <c r="W22" t="n">
-        <v>112.2910127749029</v>
+        <v>112.291012774903</v>
       </c>
       <c r="X22" t="n">
-        <v>57.93611477070604</v>
+        <v>57.93611477070615</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.81098252677373</v>
+        <v>48.81098252677384</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>219.099279429967</v>
+        <v>219.0992794299671</v>
       </c>
       <c r="C23" t="n">
-        <v>207.1105963876487</v>
+        <v>207.1105963876489</v>
       </c>
       <c r="D23" t="n">
-        <v>198.0919004321767</v>
+        <v>198.0919004321768</v>
       </c>
       <c r="E23" t="n">
-        <v>219.8340380020823</v>
+        <v>219.8340380020824</v>
       </c>
       <c r="F23" t="n">
-        <v>239.0058540900594</v>
+        <v>239.0058540900595</v>
       </c>
       <c r="G23" t="n">
-        <v>240.9391219874819</v>
+        <v>240.9391219874821</v>
       </c>
       <c r="H23" t="n">
-        <v>158.4892369657919</v>
+        <v>158.489236965792</v>
       </c>
       <c r="I23" t="n">
-        <v>0.08520211041999914</v>
+        <v>0.08520211042011283</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.35286092307763</v>
+        <v>14.35286092307774</v>
       </c>
       <c r="T23" t="n">
-        <v>51.11153211342699</v>
+        <v>51.1115321134271</v>
       </c>
       <c r="U23" t="n">
-        <v>81.33265823027395</v>
+        <v>81.33265823027406</v>
       </c>
       <c r="V23" t="n">
-        <v>162.6056566701461</v>
+        <v>162.6056566701462</v>
       </c>
       <c r="W23" t="n">
-        <v>187.905756148103</v>
+        <v>187.9057561481031</v>
       </c>
       <c r="X23" t="n">
-        <v>207.2060143808496</v>
+        <v>207.2060143808498</v>
       </c>
       <c r="Y23" t="n">
-        <v>218.6026121770484</v>
+        <v>218.6026121770485</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>78.95005679388166</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
-        <v>122.7710337916623</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
         <v>186.7982527956746</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.71599030466407</v>
+        <v>10.71599030466419</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>40.56884027747736</v>
+        <v>40.56884027747748</v>
       </c>
       <c r="T25" t="n">
-        <v>59.843338959606</v>
+        <v>59.84333895960611</v>
       </c>
       <c r="U25" t="n">
-        <v>113.3145124229192</v>
+        <v>113.3145124229193</v>
       </c>
       <c r="V25" t="n">
-        <v>87.12412670428967</v>
+        <v>87.12412670428978</v>
       </c>
       <c r="W25" t="n">
-        <v>112.2910127749029</v>
+        <v>112.291012774903</v>
       </c>
       <c r="X25" t="n">
-        <v>57.93611477070604</v>
+        <v>57.93611477070615</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.81098252677373</v>
+        <v>48.81098252677384</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>276.6729386146302</v>
+        <v>276.6729386146301</v>
       </c>
       <c r="C26" t="n">
         <v>264.6842555723119</v>
       </c>
       <c r="D26" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>277.4076971867455</v>
+        <v>277.4076971867454</v>
       </c>
       <c r="F26" t="n">
         <v>296.5795132747226</v>
       </c>
       <c r="G26" t="n">
-        <v>298.5127811721451</v>
+        <v>293.6665659094131</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>216.062896150455</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.92652010774083</v>
+        <v>71.92652010774079</v>
       </c>
       <c r="T26" t="n">
-        <v>64.23631256897353</v>
+        <v>108.6851912980901</v>
       </c>
       <c r="U26" t="n">
         <v>138.9063174149371</v>
@@ -2621,7 +2621,7 @@
         <v>264.7796735655128</v>
       </c>
       <c r="Y26" t="n">
-        <v>276.1762713617116</v>
+        <v>276.1762713617115</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133602</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2688,7 +2688,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
-        <v>201.7443531921692</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.28964948932727</v>
+        <v>68.28964948932723</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472771</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230615</v>
+        <v>38.1110087323061</v>
       </c>
       <c r="E28" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808555</v>
       </c>
       <c r="F28" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627186</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761974</v>
+        <v>53.8003856376197</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031012</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513947</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355678</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214052</v>
       </c>
       <c r="T28" t="n">
         <v>117.4169981442692</v>
       </c>
       <c r="U28" t="n">
-        <v>170.8881716075824</v>
+        <v>170.8881716075823</v>
       </c>
       <c r="V28" t="n">
-        <v>144.6977858889529</v>
+        <v>144.6977858889528</v>
       </c>
       <c r="W28" t="n">
         <v>169.8646719595661</v>
@@ -2801,7 +2801,7 @@
         <v>277.4076971867455</v>
       </c>
       <c r="F29" t="n">
-        <v>296.5795132747226</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>298.5127811721451</v>
@@ -2810,7 +2810,7 @@
         <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
-        <v>57.6588612950832</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.92652010774083</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T29" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U29" t="n">
-        <v>40.914997095091</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>198.5881929548759</v>
       </c>
       <c r="W29" t="n">
         <v>245.4794153327662</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
-        <v>172.2327615101707</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
         <v>216.3098444776729</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.28964948932727</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C31" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D31" t="n">
-        <v>38.11100873230615</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E31" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F31" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G31" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H31" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I31" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S31" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T31" t="n">
         <v>117.4169981442692</v>
@@ -3013,7 +3013,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X31" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y31" t="n">
         <v>106.3846417114369</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>248.452416085674</v>
+        <v>248.4524160856741</v>
       </c>
       <c r="C32" t="n">
-        <v>236.4637330433557</v>
+        <v>236.4637330433558</v>
       </c>
       <c r="D32" t="n">
-        <v>227.4450370878837</v>
+        <v>227.4450370878838</v>
       </c>
       <c r="E32" t="n">
         <v>249.1871746577893</v>
       </c>
       <c r="F32" t="n">
-        <v>268.3589907457664</v>
+        <v>268.3589907457665</v>
       </c>
       <c r="G32" t="n">
-        <v>270.2922586431889</v>
+        <v>270.292258643189</v>
       </c>
       <c r="H32" t="n">
-        <v>187.8423736214989</v>
+        <v>187.842373621499</v>
       </c>
       <c r="I32" t="n">
-        <v>29.438338766127</v>
+        <v>29.43833876612709</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.70599757878463</v>
+        <v>43.70599757878472</v>
       </c>
       <c r="T32" t="n">
-        <v>80.46466876913399</v>
+        <v>80.46466876913408</v>
       </c>
       <c r="U32" t="n">
         <v>110.685794885981</v>
       </c>
       <c r="V32" t="n">
-        <v>191.9587933258531</v>
+        <v>191.9587933258532</v>
       </c>
       <c r="W32" t="n">
-        <v>217.25889280381</v>
+        <v>217.2588928038101</v>
       </c>
       <c r="X32" t="n">
-        <v>236.5591510365566</v>
+        <v>236.5591510365567</v>
       </c>
       <c r="Y32" t="n">
-        <v>247.9557488327554</v>
+        <v>247.9557488327555</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133623</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.06912696037108</v>
+        <v>40.06912696037116</v>
       </c>
       <c r="C34" t="n">
-        <v>26.26912180577156</v>
+        <v>26.26912180577165</v>
       </c>
       <c r="D34" t="n">
-        <v>9.890486203349951</v>
+        <v>9.890486203350036</v>
       </c>
       <c r="E34" t="n">
-        <v>8.8382360591294</v>
+        <v>8.838236059129486</v>
       </c>
       <c r="F34" t="n">
-        <v>9.305160387315709</v>
+        <v>9.305160387315794</v>
       </c>
       <c r="G34" t="n">
-        <v>25.57986310866355</v>
+        <v>25.57986310866363</v>
       </c>
       <c r="H34" t="n">
-        <v>16.12823073135397</v>
+        <v>16.12823073135405</v>
       </c>
       <c r="I34" t="n">
-        <v>1.110325916183314</v>
+        <v>1.110325916183399</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.375875534600624</v>
+        <v>6.375875534600709</v>
       </c>
       <c r="S34" t="n">
-        <v>69.92197693318437</v>
+        <v>69.92197693318445</v>
       </c>
       <c r="T34" t="n">
-        <v>89.19647561531301</v>
+        <v>89.19647561531309</v>
       </c>
       <c r="U34" t="n">
-        <v>142.6676490786262</v>
+        <v>142.6676490786263</v>
       </c>
       <c r="V34" t="n">
-        <v>116.4772633599967</v>
+        <v>116.4772633599968</v>
       </c>
       <c r="W34" t="n">
-        <v>141.6441494306099</v>
+        <v>141.64414943061</v>
       </c>
       <c r="X34" t="n">
-        <v>87.28925142641305</v>
+        <v>87.28925142641313</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.16411918248073</v>
+        <v>78.16411918248082</v>
       </c>
     </row>
     <row r="35">
@@ -3266,25 +3266,25 @@
         <v>223.974038980382</v>
       </c>
       <c r="C35" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D35" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E35" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F35" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G35" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H35" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I35" t="n">
-        <v>4.959961660835035</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>19.22762047349266</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T35" t="n">
-        <v>55.98629166384202</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U35" t="n">
-        <v>86.20741778068898</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V35" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W35" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X35" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y35" t="n">
         <v>223.4773717274634</v>
@@ -3357,13 +3357,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>112.875723691445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.59074985507911</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C37" t="n">
-        <v>1.790744700479593</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.101486003371576</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>45.4435998278924</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T37" t="n">
-        <v>64.71809851002104</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U37" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V37" t="n">
-        <v>91.9988862547047</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W37" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X37" t="n">
-        <v>62.81087432112108</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.68574207718876</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
     <row r="38">
@@ -3503,25 +3503,25 @@
         <v>223.974038980382</v>
       </c>
       <c r="C38" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D38" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E38" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F38" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G38" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H38" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I38" t="n">
-        <v>4.959961660835035</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>19.22762047349266</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T38" t="n">
-        <v>55.98629166384202</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U38" t="n">
-        <v>86.20741778068898</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V38" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W38" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X38" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y38" t="n">
         <v>223.4773717274634</v>
@@ -3600,7 +3600,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>53.1329711713359</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.59074985507911</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C40" t="n">
-        <v>1.790744700479593</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.101486003371576</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>45.4435998278924</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T40" t="n">
-        <v>64.71809851002104</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U40" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V40" t="n">
-        <v>91.9988862547047</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W40" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X40" t="n">
-        <v>62.81087432112108</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.68574207718876</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>229.7437828235485</v>
+        <v>229.7437828235486</v>
       </c>
       <c r="C41" t="n">
         <v>217.7550997812303</v>
@@ -3755,7 +3755,7 @@
         <v>251.5836253810635</v>
       </c>
       <c r="H41" t="n">
-        <v>118.3146525325359</v>
+        <v>169.1337403593734</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>24.9973643166592</v>
       </c>
       <c r="T41" t="n">
-        <v>61.75603550700853</v>
+        <v>61.75603550700856</v>
       </c>
       <c r="U41" t="n">
-        <v>91.97716162385549</v>
+        <v>91.97716162385552</v>
       </c>
       <c r="V41" t="n">
         <v>173.2501600637277</v>
       </c>
       <c r="W41" t="n">
-        <v>198.5502595416846</v>
+        <v>122.733807398188</v>
       </c>
       <c r="X41" t="n">
         <v>217.8505177744312</v>
       </c>
       <c r="Y41" t="n">
-        <v>229.2471155706299</v>
+        <v>229.24711557063</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>53.13297117133636</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.36049369824562</v>
+        <v>21.36049369824565</v>
       </c>
       <c r="C43" t="n">
-        <v>7.560488543646102</v>
+        <v>7.56048854364613</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>6.871229846538085</v>
+        <v>6.871229846538114</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>51.21334367105891</v>
+        <v>51.21334367105894</v>
       </c>
       <c r="T43" t="n">
-        <v>70.48784235318755</v>
+        <v>70.48784235318757</v>
       </c>
       <c r="U43" t="n">
         <v>123.9590158165007</v>
       </c>
       <c r="V43" t="n">
-        <v>97.76863009787121</v>
+        <v>97.76863009787124</v>
       </c>
       <c r="W43" t="n">
         <v>122.9355161684845</v>
       </c>
       <c r="X43" t="n">
-        <v>68.58061816428759</v>
+        <v>68.58061816428761</v>
       </c>
       <c r="Y43" t="n">
-        <v>59.45548592035527</v>
+        <v>59.4554859203553</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>229.7437828235485</v>
+        <v>229.7437828235486</v>
       </c>
       <c r="C44" t="n">
         <v>217.7550997812303</v>
@@ -3992,10 +3992,10 @@
         <v>251.5836253810635</v>
       </c>
       <c r="H44" t="n">
-        <v>93.31728821587713</v>
+        <v>169.1337403593734</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>10.72970550400157</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>24.99736431665917</v>
+        <v>24.9973643166592</v>
       </c>
       <c r="T44" t="n">
-        <v>61.75603550700853</v>
+        <v>61.75603550700856</v>
       </c>
       <c r="U44" t="n">
-        <v>91.97716162385549</v>
+        <v>91.97716162385552</v>
       </c>
       <c r="V44" t="n">
         <v>173.2501600637277</v>
@@ -4043,7 +4043,7 @@
         <v>217.8505177744312</v>
       </c>
       <c r="Y44" t="n">
-        <v>229.2471155706299</v>
+        <v>142.7009579231313</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W45" t="n">
-        <v>224.3372187935193</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X45" t="n">
         <v>195.9378182409833</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>21.36049369824562</v>
+        <v>21.36049369824565</v>
       </c>
       <c r="C46" t="n">
-        <v>7.560488543646102</v>
+        <v>7.56048854364613</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>6.871229846538085</v>
+        <v>6.871229846538114</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>51.21334367105891</v>
+        <v>51.21334367105894</v>
       </c>
       <c r="T46" t="n">
-        <v>70.48784235318755</v>
+        <v>70.48784235318757</v>
       </c>
       <c r="U46" t="n">
         <v>123.9590158165007</v>
       </c>
       <c r="V46" t="n">
-        <v>97.76863009787121</v>
+        <v>97.76863009787124</v>
       </c>
       <c r="W46" t="n">
         <v>122.9355161684845</v>
       </c>
       <c r="X46" t="n">
-        <v>68.58061816428759</v>
+        <v>68.58061816428761</v>
       </c>
       <c r="Y46" t="n">
-        <v>59.45548592035527</v>
+        <v>59.4554859203553</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>293.4011344615875</v>
+        <v>567.6697679663223</v>
       </c>
       <c r="C2" t="n">
-        <v>293.4011344615875</v>
+        <v>567.6697679663223</v>
       </c>
       <c r="D2" t="n">
-        <v>62.03129477242763</v>
+        <v>567.6697679663223</v>
       </c>
       <c r="E2" t="n">
-        <v>62.03129477242763</v>
+        <v>567.6697679663223</v>
       </c>
       <c r="F2" t="n">
-        <v>51.92050812300202</v>
+        <v>557.5589813168967</v>
       </c>
       <c r="G2" t="n">
-        <v>39.85692561759405</v>
+        <v>545.4953988114888</v>
       </c>
       <c r="H2" t="n">
-        <v>39.85692561759405</v>
+        <v>212.6741244087981</v>
       </c>
       <c r="I2" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759408</v>
       </c>
       <c r="J2" t="n">
         <v>111.8554698903997</v>
@@ -4334,46 +4334,46 @@
         <v>351.9958419351825</v>
       </c>
       <c r="L2" t="n">
-        <v>699.8812150201288</v>
+        <v>593.6820213234762</v>
       </c>
       <c r="M2" t="n">
-        <v>1093.120381273217</v>
+        <v>986.9211875765641</v>
       </c>
       <c r="N2" t="n">
-        <v>1365.252546264278</v>
+        <v>1365.25254626428</v>
       </c>
       <c r="O2" t="n">
-        <v>1670.257130737112</v>
+        <v>1670.257130737114</v>
       </c>
       <c r="P2" t="n">
-        <v>1898.414027193166</v>
+        <v>1898.414027193167</v>
       </c>
       <c r="Q2" t="n">
-        <v>1992.846280879703</v>
+        <v>1992.846280879704</v>
       </c>
       <c r="R2" t="n">
-        <v>1992.846280879703</v>
+        <v>1902.207994375557</v>
       </c>
       <c r="S2" t="n">
-        <v>1992.846280879703</v>
+        <v>1902.207994375557</v>
       </c>
       <c r="T2" t="n">
-        <v>1768.487334610714</v>
+        <v>1677.849048106568</v>
       </c>
       <c r="U2" t="n">
-        <v>1768.487334610714</v>
+        <v>1422.963711820563</v>
       </c>
       <c r="V2" t="n">
-        <v>1431.508060506655</v>
+        <v>1085.984437716504</v>
       </c>
       <c r="W2" t="n">
-        <v>1068.973130364256</v>
+        <v>723.4495075741049</v>
       </c>
       <c r="X2" t="n">
-        <v>686.9429898857495</v>
+        <v>567.6697679663223</v>
       </c>
       <c r="Y2" t="n">
-        <v>293.4011344615875</v>
+        <v>567.6697679663223</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>555.8095306394951</v>
+        <v>564.9207538567824</v>
       </c>
       <c r="C3" t="n">
-        <v>394.1058578804498</v>
+        <v>403.2170810977372</v>
       </c>
       <c r="D3" t="n">
-        <v>255.2672208706618</v>
+        <v>403.2170810977372</v>
       </c>
       <c r="E3" t="n">
-        <v>108.2392109275331</v>
+        <v>403.2170810977372</v>
       </c>
       <c r="F3" t="n">
-        <v>108.2392109275331</v>
+        <v>268.5232830476115</v>
       </c>
       <c r="G3" t="n">
-        <v>108.2392109275331</v>
+        <v>139.794783070896</v>
       </c>
       <c r="H3" t="n">
-        <v>108.2392109275331</v>
+        <v>39.85692561759408</v>
       </c>
       <c r="I3" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759408</v>
       </c>
       <c r="J3" t="n">
         <v>100.1110721507002</v>
@@ -4416,43 +4416,43 @@
         <v>695.4234698810045</v>
       </c>
       <c r="M3" t="n">
-        <v>695.4234698810045</v>
+        <v>1180.456823391231</v>
       </c>
       <c r="N3" t="n">
-        <v>1140.77878103426</v>
+        <v>1532.978731818412</v>
       </c>
       <c r="O3" t="n">
-        <v>1532.978731818411</v>
+        <v>1532.978731818412</v>
       </c>
       <c r="P3" t="n">
-        <v>1835.074651094108</v>
+        <v>1835.07465109411</v>
       </c>
       <c r="Q3" t="n">
-        <v>1992.846280879703</v>
+        <v>1992.846280879704</v>
       </c>
       <c r="R3" t="n">
-        <v>1933.062011974648</v>
+        <v>1933.06201197465</v>
       </c>
       <c r="S3" t="n">
-        <v>1780.262524987389</v>
+        <v>1780.26252498739</v>
       </c>
       <c r="T3" t="n">
-        <v>1780.262524987389</v>
+        <v>1591.577421153375</v>
       </c>
       <c r="U3" t="n">
-        <v>1575.378779211738</v>
+        <v>1391.968676078605</v>
       </c>
       <c r="V3" t="n">
-        <v>1346.983156660072</v>
+        <v>1163.573053526939</v>
       </c>
       <c r="W3" t="n">
-        <v>1105.667287893383</v>
+        <v>922.2571847602488</v>
       </c>
       <c r="X3" t="n">
-        <v>907.7502997711771</v>
+        <v>724.3401966380434</v>
       </c>
       <c r="Y3" t="n">
-        <v>715.2289734207559</v>
+        <v>724.3401966380434</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4462,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759408</v>
       </c>
       <c r="C4" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759408</v>
       </c>
       <c r="D4" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759408</v>
       </c>
       <c r="E4" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759408</v>
       </c>
       <c r="F4" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759408</v>
       </c>
       <c r="G4" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759408</v>
       </c>
       <c r="H4" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759408</v>
       </c>
       <c r="I4" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759408</v>
       </c>
       <c r="J4" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759408</v>
       </c>
       <c r="K4" t="n">
-        <v>73.46111336223746</v>
+        <v>73.46111336223748</v>
       </c>
       <c r="L4" t="n">
-        <v>174.0681927624969</v>
+        <v>174.068192762497</v>
       </c>
       <c r="M4" t="n">
         <v>292.0616988900987</v>
@@ -4501,7 +4501,7 @@
         <v>410.4840406396991</v>
       </c>
       <c r="O4" t="n">
-        <v>508.9476871353887</v>
+        <v>508.9476871353888</v>
       </c>
       <c r="P4" t="n">
         <v>571.9161708635265</v>
@@ -4516,22 +4516,22 @@
         <v>571.9161708635265</v>
       </c>
       <c r="T4" t="n">
-        <v>571.9161708635265</v>
+        <v>338.7372176792054</v>
       </c>
       <c r="U4" t="n">
-        <v>571.9161708635265</v>
+        <v>338.7372176792054</v>
       </c>
       <c r="V4" t="n">
-        <v>326.0133271001949</v>
+        <v>338.7372176792054</v>
       </c>
       <c r="W4" t="n">
-        <v>39.85692561759405</v>
+        <v>52.58081619660453</v>
       </c>
       <c r="X4" t="n">
-        <v>39.85692561759405</v>
+        <v>52.58081619660453</v>
       </c>
       <c r="Y4" t="n">
-        <v>39.85692561759405</v>
+        <v>52.58081619660453</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1242.936067626012</v>
+        <v>838.8956635856082</v>
       </c>
       <c r="C5" t="n">
-        <v>1242.936067626012</v>
+        <v>838.8956635856082</v>
       </c>
       <c r="D5" t="n">
-        <v>870.1121028532357</v>
+        <v>466.0716988128317</v>
       </c>
       <c r="E5" t="n">
-        <v>870.1121028532357</v>
+        <v>466.0716988128317</v>
       </c>
       <c r="F5" t="n">
         <v>455.9609121634061</v>
       </c>
       <c r="G5" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759408</v>
       </c>
       <c r="H5" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759408</v>
       </c>
       <c r="I5" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759408</v>
       </c>
       <c r="J5" t="n">
-        <v>39.85692561759405</v>
+        <v>111.8554698903997</v>
       </c>
       <c r="K5" t="n">
-        <v>279.9972976623768</v>
+        <v>351.9958419351825</v>
       </c>
       <c r="L5" t="n">
-        <v>627.8826707473231</v>
+        <v>699.8812150201288</v>
       </c>
       <c r="M5" t="n">
-        <v>986.9211875765627</v>
+        <v>986.9211875765641</v>
       </c>
       <c r="N5" t="n">
-        <v>1365.252546264278</v>
+        <v>1365.25254626428</v>
       </c>
       <c r="O5" t="n">
-        <v>1670.257130737112</v>
+        <v>1670.257130737114</v>
       </c>
       <c r="P5" t="n">
-        <v>1898.414027193166</v>
+        <v>1898.414027193167</v>
       </c>
       <c r="Q5" t="n">
-        <v>1992.846280879703</v>
+        <v>1992.846280879704</v>
       </c>
       <c r="R5" t="n">
-        <v>1902.207994375556</v>
+        <v>1992.846280879704</v>
       </c>
       <c r="S5" t="n">
-        <v>1902.207994375556</v>
+        <v>1992.846280879704</v>
       </c>
       <c r="T5" t="n">
-        <v>1879.851544390525</v>
+        <v>1992.846280879704</v>
       </c>
       <c r="U5" t="n">
-        <v>1624.966208104519</v>
+        <v>1737.960944593698</v>
       </c>
       <c r="V5" t="n">
-        <v>1624.966208104519</v>
+        <v>1400.981670489639</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.966208104519</v>
+        <v>1038.44674034724</v>
       </c>
       <c r="X5" t="n">
-        <v>1242.936067626012</v>
+        <v>1038.44674034724</v>
       </c>
       <c r="Y5" t="n">
-        <v>1242.936067626012</v>
+        <v>1038.44674034724</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>850.7874008096991</v>
+        <v>628.7375133838775</v>
       </c>
       <c r="C6" t="n">
-        <v>689.0837280506538</v>
+        <v>628.7375133838775</v>
       </c>
       <c r="D6" t="n">
-        <v>550.2450910408659</v>
+        <v>489.8988763740895</v>
       </c>
       <c r="E6" t="n">
-        <v>403.2170810977372</v>
+        <v>342.8708664309607</v>
       </c>
       <c r="F6" t="n">
-        <v>268.5232830476115</v>
+        <v>208.1770683808351</v>
       </c>
       <c r="G6" t="n">
-        <v>139.794783070896</v>
+        <v>208.1770683808351</v>
       </c>
       <c r="H6" t="n">
-        <v>39.85692561759405</v>
+        <v>108.2392109275331</v>
       </c>
       <c r="I6" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759408</v>
       </c>
       <c r="J6" t="n">
-        <v>39.85692561759405</v>
+        <v>100.1110721507002</v>
       </c>
       <c r="K6" t="n">
-        <v>39.85692561759405</v>
+        <v>329.6016247108889</v>
       </c>
       <c r="L6" t="n">
-        <v>405.6787707877097</v>
+        <v>695.4234698810045</v>
       </c>
       <c r="M6" t="n">
-        <v>890.7121242979362</v>
+        <v>1180.456823391231</v>
       </c>
       <c r="N6" t="n">
-        <v>1383.941578815663</v>
+        <v>1442.874700309959</v>
       </c>
       <c r="O6" t="n">
-        <v>1690.750361604005</v>
+        <v>1835.07465109411</v>
       </c>
       <c r="P6" t="n">
-        <v>1992.846280879703</v>
+        <v>1835.07465109411</v>
       </c>
       <c r="Q6" t="n">
-        <v>1992.846280879703</v>
+        <v>1992.846280879704</v>
       </c>
       <c r="R6" t="n">
-        <v>1992.846280879703</v>
+        <v>1992.846280879704</v>
       </c>
       <c r="S6" t="n">
-        <v>1992.846280879703</v>
+        <v>1840.046793892444</v>
       </c>
       <c r="T6" t="n">
-        <v>1992.846280879703</v>
+        <v>1651.361690058429</v>
       </c>
       <c r="U6" t="n">
-        <v>1870.356649381942</v>
+        <v>1432.866897656739</v>
       </c>
       <c r="V6" t="n">
-        <v>1641.961026830276</v>
+        <v>1204.471275105073</v>
       </c>
       <c r="W6" t="n">
-        <v>1400.645158063586</v>
+        <v>1178.595270637765</v>
       </c>
       <c r="X6" t="n">
-        <v>1202.728169941381</v>
+        <v>980.6782825155595</v>
       </c>
       <c r="Y6" t="n">
-        <v>1010.20684359096</v>
+        <v>788.1569561651384</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4699,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362.5447883281511</v>
+        <v>39.85692561759408</v>
       </c>
       <c r="C7" t="n">
-        <v>192.9288187898313</v>
+        <v>39.85692561759408</v>
       </c>
       <c r="D7" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759408</v>
       </c>
       <c r="E7" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759408</v>
       </c>
       <c r="F7" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759408</v>
       </c>
       <c r="G7" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759408</v>
       </c>
       <c r="H7" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759408</v>
       </c>
       <c r="I7" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759408</v>
       </c>
       <c r="J7" t="n">
-        <v>39.85692561759405</v>
+        <v>39.85692561759408</v>
       </c>
       <c r="K7" t="n">
-        <v>73.46111336223746</v>
+        <v>73.46111336223748</v>
       </c>
       <c r="L7" t="n">
-        <v>174.0681927624969</v>
+        <v>174.068192762497</v>
       </c>
       <c r="M7" t="n">
         <v>292.0616988900987</v>
@@ -4738,7 +4738,7 @@
         <v>410.4840406396991</v>
       </c>
       <c r="O7" t="n">
-        <v>508.9476871353887</v>
+        <v>508.9476871353888</v>
       </c>
       <c r="P7" t="n">
         <v>571.9161708635265</v>
@@ -4750,25 +4750,25 @@
         <v>422.3943894779047</v>
       </c>
       <c r="S7" t="n">
-        <v>422.3943894779047</v>
+        <v>208.6846268815923</v>
       </c>
       <c r="T7" t="n">
-        <v>422.3943894779047</v>
+        <v>208.6846268815923</v>
       </c>
       <c r="U7" t="n">
-        <v>422.3943894779047</v>
+        <v>208.6846268815923</v>
       </c>
       <c r="V7" t="n">
-        <v>362.5447883281511</v>
+        <v>39.85692561759408</v>
       </c>
       <c r="W7" t="n">
-        <v>362.5447883281511</v>
+        <v>39.85692561759408</v>
       </c>
       <c r="X7" t="n">
-        <v>362.5447883281511</v>
+        <v>39.85692561759408</v>
       </c>
       <c r="Y7" t="n">
-        <v>362.5447883281511</v>
+        <v>39.85692561759408</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.4447788886692</v>
+        <v>1370.189991437883</v>
       </c>
       <c r="C8" t="n">
-        <v>64.19862525603281</v>
+        <v>1370.189991437883</v>
       </c>
       <c r="D8" t="n">
-        <v>64.19862525603281</v>
+        <v>997.366026665107</v>
       </c>
       <c r="E8" t="n">
-        <v>64.19862525603281</v>
+        <v>801.0603036991275</v>
       </c>
       <c r="F8" t="n">
-        <v>54.08783860660719</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G8" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V8" t="n">
-        <v>1673.595244451756</v>
+        <v>1764.233530955903</v>
       </c>
       <c r="W8" t="n">
-        <v>1311.060314309357</v>
+        <v>1764.233530955903</v>
       </c>
       <c r="X8" t="n">
-        <v>929.0301738308503</v>
+        <v>1764.233530955903</v>
       </c>
       <c r="Y8" t="n">
-        <v>535.4883184066883</v>
+        <v>1764.233530955903</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>921.3370166032433</v>
+        <v>792.6085166265278</v>
       </c>
       <c r="C9" t="n">
-        <v>759.6333438441981</v>
+        <v>630.9048438674826</v>
       </c>
       <c r="D9" t="n">
-        <v>620.7947068344101</v>
+        <v>492.0662068576946</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>345.0381969145658</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="G9" t="n">
         <v>210.3443988644402</v>
@@ -4881,52 +4881,52 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>271.5148086613879</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L9" t="n">
-        <v>637.3366538315036</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M9" t="n">
-        <v>1122.37000734173</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N9" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>2041.428536154907</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T9" t="n">
-        <v>2041.428536154907</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="U9" t="n">
-        <v>1822.933743753217</v>
+        <v>1812.177765198771</v>
       </c>
       <c r="V9" t="n">
-        <v>1594.538121201551</v>
+        <v>1583.782142647105</v>
       </c>
       <c r="W9" t="n">
-        <v>1471.194773857131</v>
+        <v>1342.466273880415</v>
       </c>
       <c r="X9" t="n">
-        <v>1273.277785734925</v>
+        <v>1144.54928575821</v>
       </c>
       <c r="Y9" t="n">
-        <v>1080.756459384504</v>
+        <v>952.0279594077888</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -4984,28 +4984,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>562.3934487964206</v>
       </c>
       <c r="S10" t="n">
-        <v>405.6571843050742</v>
+        <v>562.3934487964206</v>
       </c>
       <c r="T10" t="n">
-        <v>405.6571843050742</v>
+        <v>329.2144956120994</v>
       </c>
       <c r="U10" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V10" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W10" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X10" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5027,22 +5027,22 @@
         <v>927.1832789687994</v>
       </c>
       <c r="F11" t="n">
-        <v>627.6080130347362</v>
+        <v>627.6080130347361</v>
       </c>
       <c r="G11" t="n">
-        <v>326.0799512446906</v>
+        <v>326.0799512446905</v>
       </c>
       <c r="H11" t="n">
         <v>107.8346015977661</v>
       </c>
       <c r="I11" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="J11" t="n">
-        <v>233.8877356882608</v>
+        <v>121.5918718351342</v>
       </c>
       <c r="K11" t="n">
-        <v>586.3239715861703</v>
+        <v>474.0281077330436</v>
       </c>
       <c r="L11" t="n">
         <v>934.2093446711165</v>
@@ -5054,37 +5054,37 @@
         <v>1705.77986961192</v>
       </c>
       <c r="O11" t="n">
-        <v>2010.784454084754</v>
+        <v>2044.781364120709</v>
       </c>
       <c r="P11" t="n">
-        <v>2249.476981326347</v>
+        <v>2272.938260576762</v>
       </c>
       <c r="Q11" t="n">
-        <v>2456.205098866011</v>
+        <v>2479.666378116426</v>
       </c>
       <c r="R11" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116426</v>
       </c>
       <c r="S11" t="n">
-        <v>2479.666378116424</v>
+        <v>2407.013327502546</v>
       </c>
       <c r="T11" t="n">
-        <v>2369.883356603202</v>
+        <v>2364.388604951913</v>
       </c>
       <c r="U11" t="n">
-        <v>2229.573945072962</v>
+        <v>2224.079193421673</v>
       </c>
       <c r="V11" t="n">
-        <v>2007.17059572467</v>
+        <v>2001.675844073381</v>
       </c>
       <c r="W11" t="n">
-        <v>1759.211590338037</v>
+        <v>1753.716838686748</v>
       </c>
       <c r="X11" t="n">
-        <v>1754.218522780605</v>
+        <v>1753.716838686748</v>
       </c>
       <c r="Y11" t="n">
-        <v>1754.218522780605</v>
+        <v>1474.750908018352</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>928.9060880643725</v>
+        <v>860.5238027544336</v>
       </c>
       <c r="C12" t="n">
-        <v>767.2024153053272</v>
+        <v>698.8201299953884</v>
       </c>
       <c r="D12" t="n">
-        <v>628.3637782955393</v>
+        <v>559.9814929856004</v>
       </c>
       <c r="E12" t="n">
-        <v>481.3357683524106</v>
+        <v>412.9534830424716</v>
       </c>
       <c r="F12" t="n">
-        <v>346.6419703022849</v>
+        <v>278.2596849923459</v>
       </c>
       <c r="G12" t="n">
-        <v>217.9134703255694</v>
+        <v>149.5311850156305</v>
       </c>
       <c r="H12" t="n">
-        <v>117.9756128722675</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="I12" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="J12" t="n">
         <v>109.8474740954346</v>
@@ -5136,34 +5136,34 @@
         <v>2093.658822243239</v>
       </c>
       <c r="P12" t="n">
-        <v>2321.89474833083</v>
+        <v>2321.894748330832</v>
       </c>
       <c r="Q12" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116426</v>
       </c>
       <c r="R12" t="n">
-        <v>2479.666378116424</v>
+        <v>2440.072434549641</v>
       </c>
       <c r="S12" t="n">
-        <v>2326.866891129164</v>
+        <v>2287.272947562381</v>
       </c>
       <c r="T12" t="n">
-        <v>2138.18178729515</v>
+        <v>2098.587843728367</v>
       </c>
       <c r="U12" t="n">
-        <v>1948.475336636616</v>
+        <v>1880.093051326677</v>
       </c>
       <c r="V12" t="n">
-        <v>1720.07971408495</v>
+        <v>1651.697428775011</v>
       </c>
       <c r="W12" t="n">
-        <v>1478.76384531826</v>
+        <v>1410.381560008321</v>
       </c>
       <c r="X12" t="n">
-        <v>1280.846857196055</v>
+        <v>1212.464571886116</v>
       </c>
       <c r="Y12" t="n">
-        <v>1088.325530845633</v>
+        <v>1019.943245535695</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>347.2348244456228</v>
+        <v>347.2348244456226</v>
       </c>
       <c r="C13" t="n">
-        <v>292.1947796630695</v>
+        <v>292.1947796630693</v>
       </c>
       <c r="D13" t="n">
-        <v>253.6988112465987</v>
+        <v>253.6988112465984</v>
       </c>
       <c r="E13" t="n">
-        <v>216.2657217636839</v>
+        <v>216.2657217636836</v>
       </c>
       <c r="F13" t="n">
-        <v>178.3609915452275</v>
+        <v>178.3609915452271</v>
       </c>
       <c r="G13" t="n">
-        <v>124.0171676688439</v>
+        <v>124.0171676688435</v>
       </c>
       <c r="H13" t="n">
-        <v>79.22044720388408</v>
+        <v>79.22044720388371</v>
       </c>
       <c r="I13" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="J13" t="n">
         <v>103.0270918774859</v>
@@ -5206,10 +5206,10 @@
         <v>461.8300867286422</v>
       </c>
       <c r="M13" t="n">
-        <v>692.1194567093706</v>
+        <v>692.1194567093705</v>
       </c>
       <c r="N13" t="n">
-        <v>922.8376623120976</v>
+        <v>922.8376623120975</v>
       </c>
       <c r="O13" t="n">
         <v>1133.597172660914</v>
@@ -5218,7 +5218,7 @@
         <v>1308.861520242178</v>
       </c>
       <c r="Q13" t="n">
-        <v>1383.386935841786</v>
+        <v>1383.386935841785</v>
       </c>
       <c r="R13" t="n">
         <v>1348.44107921193</v>
@@ -5227,22 +5227,22 @@
         <v>1249.307241371384</v>
       </c>
       <c r="T13" t="n">
-        <v>1130.70421294283</v>
+        <v>1130.704212942829</v>
       </c>
       <c r="U13" t="n">
-        <v>958.0898981876959</v>
+        <v>958.0898981876956</v>
       </c>
       <c r="V13" t="n">
-        <v>811.930518501885</v>
+        <v>811.9305185018846</v>
       </c>
       <c r="W13" t="n">
-        <v>640.3500417750506</v>
+        <v>640.3500417750503</v>
       </c>
       <c r="X13" t="n">
-        <v>523.6735024261927</v>
+        <v>523.6735024261925</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.2142683742363</v>
+        <v>416.2142683742359</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1149.151800071487</v>
+        <v>1249.921414846247</v>
       </c>
       <c r="C14" t="n">
-        <v>1149.151800071487</v>
+        <v>1247.395764477012</v>
       </c>
       <c r="D14" t="n">
-        <v>1149.151800071487</v>
+        <v>989.1477244600017</v>
       </c>
       <c r="E14" t="n">
-        <v>868.9420049333614</v>
+        <v>708.9379293218749</v>
       </c>
       <c r="F14" t="n">
-        <v>569.3667389992983</v>
+        <v>409.3626633878117</v>
       </c>
       <c r="G14" t="n">
-        <v>267.8386772092528</v>
+        <v>107.8346015977661</v>
       </c>
       <c r="H14" t="n">
-        <v>49.59332756232848</v>
+        <v>107.8346015977661</v>
       </c>
       <c r="I14" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="J14" t="n">
-        <v>121.5918718351341</v>
+        <v>121.5918718351342</v>
       </c>
       <c r="K14" t="n">
-        <v>361.7322438799169</v>
+        <v>361.732243879917</v>
       </c>
       <c r="L14" t="n">
-        <v>720.1532477504034</v>
+        <v>821.9134808179898</v>
       </c>
       <c r="M14" t="n">
-        <v>1225.688277856618</v>
+        <v>1327.448510924204</v>
       </c>
       <c r="N14" t="n">
-        <v>1604.019636544334</v>
+        <v>1705.77986961192</v>
       </c>
       <c r="O14" t="n">
-        <v>2021.320084870294</v>
+        <v>2123.080317937881</v>
       </c>
       <c r="P14" t="n">
-        <v>2249.476981326347</v>
+        <v>2351.237214393934</v>
       </c>
       <c r="Q14" t="n">
-        <v>2456.205098866011</v>
+        <v>2479.666378116426</v>
       </c>
       <c r="R14" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116426</v>
       </c>
       <c r="S14" t="n">
-        <v>2407.013327502544</v>
+        <v>2407.013327502546</v>
       </c>
       <c r="T14" t="n">
-        <v>2297.230305989322</v>
+        <v>2407.013327502546</v>
       </c>
       <c r="U14" t="n">
-        <v>2156.920894459082</v>
+        <v>2266.703915972307</v>
       </c>
       <c r="V14" t="n">
-        <v>1934.51754511079</v>
+        <v>2044.300566624015</v>
       </c>
       <c r="W14" t="n">
-        <v>1686.558539724158</v>
+        <v>1796.341561237382</v>
       </c>
       <c r="X14" t="n">
-        <v>1419.104324001417</v>
+        <v>1528.887345514642</v>
       </c>
       <c r="Y14" t="n">
-        <v>1149.151800071487</v>
+        <v>1249.921414846247</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>928.9060880643725</v>
+        <v>860.5238027544336</v>
       </c>
       <c r="C15" t="n">
-        <v>767.2024153053272</v>
+        <v>698.8201299953884</v>
       </c>
       <c r="D15" t="n">
-        <v>628.3637782955393</v>
+        <v>559.9814929856004</v>
       </c>
       <c r="E15" t="n">
-        <v>481.3357683524106</v>
+        <v>412.9534830424716</v>
       </c>
       <c r="F15" t="n">
-        <v>346.6419703022849</v>
+        <v>278.2596849923459</v>
       </c>
       <c r="G15" t="n">
-        <v>217.9134703255694</v>
+        <v>149.5311850156305</v>
       </c>
       <c r="H15" t="n">
-        <v>117.9756128722675</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="I15" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="J15" t="n">
-        <v>49.59332756232848</v>
+        <v>109.8474740954346</v>
       </c>
       <c r="K15" t="n">
-        <v>265.4780334675176</v>
+        <v>339.3380266556233</v>
       </c>
       <c r="L15" t="n">
-        <v>631.2998786376332</v>
+        <v>705.1598718257389</v>
       </c>
       <c r="M15" t="n">
-        <v>1116.33323214786</v>
+        <v>1190.193225335966</v>
       </c>
       <c r="N15" t="n">
-        <v>1627.598878270982</v>
+        <v>1701.458871459088</v>
       </c>
       <c r="O15" t="n">
-        <v>2019.798829055133</v>
+        <v>2093.658822243239</v>
       </c>
       <c r="P15" t="n">
-        <v>2321.89474833083</v>
+        <v>2395.754741518936</v>
       </c>
       <c r="Q15" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116426</v>
       </c>
       <c r="R15" t="n">
-        <v>2479.666378116424</v>
+        <v>2440.072434549641</v>
       </c>
       <c r="S15" t="n">
-        <v>2355.655232872321</v>
+        <v>2287.272947562381</v>
       </c>
       <c r="T15" t="n">
-        <v>2166.970129038306</v>
+        <v>2098.587843728367</v>
       </c>
       <c r="U15" t="n">
-        <v>1948.475336636616</v>
+        <v>1880.093051326677</v>
       </c>
       <c r="V15" t="n">
-        <v>1720.07971408495</v>
+        <v>1651.697428775011</v>
       </c>
       <c r="W15" t="n">
-        <v>1478.76384531826</v>
+        <v>1410.381560008321</v>
       </c>
       <c r="X15" t="n">
-        <v>1280.846857196055</v>
+        <v>1212.464571886116</v>
       </c>
       <c r="Y15" t="n">
-        <v>1088.325530845633</v>
+        <v>1019.943245535695</v>
       </c>
     </row>
     <row r="16">
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>347.2348244456222</v>
+        <v>347.2348244456221</v>
       </c>
       <c r="C16" t="n">
-        <v>292.194779663069</v>
+        <v>292.1947796630686</v>
       </c>
       <c r="D16" t="n">
-        <v>253.6988112465981</v>
+        <v>253.6988112465979</v>
       </c>
       <c r="E16" t="n">
-        <v>216.2657217636834</v>
+        <v>216.2657217636831</v>
       </c>
       <c r="F16" t="n">
-        <v>178.3609915452269</v>
+        <v>178.3609915452266</v>
       </c>
       <c r="G16" t="n">
-        <v>124.0171676688433</v>
+        <v>124.017167668843</v>
       </c>
       <c r="H16" t="n">
-        <v>79.22044720388351</v>
+        <v>79.22044720388357</v>
       </c>
       <c r="I16" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="J16" t="n">
-        <v>103.0270918774858</v>
+        <v>103.027091877486</v>
       </c>
       <c r="K16" t="n">
-        <v>248.9271434752559</v>
+        <v>248.9271434752556</v>
       </c>
       <c r="L16" t="n">
-        <v>461.8300867286417</v>
+        <v>461.8300867286413</v>
       </c>
       <c r="M16" t="n">
-        <v>692.11945670937</v>
+        <v>692.1194567093696</v>
       </c>
       <c r="N16" t="n">
-        <v>922.8376623120972</v>
+        <v>922.8376623120967</v>
       </c>
       <c r="O16" t="n">
-        <v>1133.597172660914</v>
+        <v>1133.597172660913</v>
       </c>
       <c r="P16" t="n">
         <v>1308.861520242178</v>
@@ -5467,19 +5467,19 @@
         <v>1130.704212942829</v>
       </c>
       <c r="U16" t="n">
-        <v>958.0898981876956</v>
+        <v>958.0898981876952</v>
       </c>
       <c r="V16" t="n">
-        <v>811.9305185018845</v>
+        <v>811.9305185018842</v>
       </c>
       <c r="W16" t="n">
-        <v>640.35004177505</v>
+        <v>640.3500417750497</v>
       </c>
       <c r="X16" t="n">
-        <v>523.6735024261923</v>
+        <v>523.6735024261919</v>
       </c>
       <c r="Y16" t="n">
-        <v>416.2142683742356</v>
+        <v>416.2142683742354</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1325.912468951885</v>
+        <v>1325.912468951886</v>
       </c>
       <c r="C17" t="n">
-        <v>1116.709846338098</v>
+        <v>1116.709846338099</v>
       </c>
       <c r="D17" t="n">
-        <v>916.6170176187278</v>
+        <v>916.6170176187286</v>
       </c>
       <c r="E17" t="n">
-        <v>694.5624337782407</v>
+        <v>694.5624337782413</v>
       </c>
       <c r="F17" t="n">
-        <v>453.1423791418171</v>
+        <v>453.1423791418174</v>
       </c>
       <c r="G17" t="n">
-        <v>209.7695286494111</v>
+        <v>209.7695286494112</v>
       </c>
       <c r="H17" t="n">
-        <v>49.67939030012646</v>
+        <v>49.67939030012666</v>
       </c>
       <c r="I17" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="J17" t="n">
-        <v>290.8856582810773</v>
+        <v>121.5918718351342</v>
       </c>
       <c r="K17" t="n">
-        <v>652.1575436320209</v>
+        <v>531.02603032586</v>
       </c>
       <c r="L17" t="n">
-        <v>1000.042916716967</v>
+        <v>878.9114034108063</v>
       </c>
       <c r="M17" t="n">
-        <v>1393.282082970055</v>
+        <v>1272.150569663894</v>
       </c>
       <c r="N17" t="n">
-        <v>1771.613441657771</v>
+        <v>1682.778857055058</v>
       </c>
       <c r="O17" t="n">
-        <v>2076.618026130604</v>
+        <v>1987.783441527892</v>
       </c>
       <c r="P17" t="n">
-        <v>2304.774922586658</v>
+        <v>2385.234124429889</v>
       </c>
       <c r="Q17" t="n">
-        <v>2399.207176273195</v>
+        <v>2479.666378116426</v>
       </c>
       <c r="R17" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116426</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.168538800183</v>
+        <v>2465.168538800185</v>
       </c>
       <c r="T17" t="n">
-        <v>2413.5407285846</v>
+        <v>2413.540728584602</v>
       </c>
       <c r="U17" t="n">
-        <v>2331.386528352</v>
+        <v>2331.386528352002</v>
       </c>
       <c r="V17" t="n">
-        <v>2167.138390301347</v>
+        <v>2167.138390301349</v>
       </c>
       <c r="W17" t="n">
-        <v>1977.334596212355</v>
+        <v>1977.334596212356</v>
       </c>
       <c r="X17" t="n">
-        <v>1768.035591787254</v>
+        <v>1768.035591787256</v>
       </c>
       <c r="Y17" t="n">
-        <v>1547.224872416498</v>
+        <v>1547.224872416499</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>928.9060880643725</v>
+        <v>840.3334774161635</v>
       </c>
       <c r="C18" t="n">
-        <v>767.2024153053272</v>
+        <v>678.6298046571183</v>
       </c>
       <c r="D18" t="n">
-        <v>628.3637782955393</v>
+        <v>539.7911676473303</v>
       </c>
       <c r="E18" t="n">
-        <v>481.3357683524106</v>
+        <v>412.9534830424716</v>
       </c>
       <c r="F18" t="n">
-        <v>346.6419703022849</v>
+        <v>278.2596849923459</v>
       </c>
       <c r="G18" t="n">
-        <v>217.9134703255694</v>
+        <v>149.5311850156305</v>
       </c>
       <c r="H18" t="n">
-        <v>117.9756128722675</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="I18" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="J18" t="n">
         <v>109.8474740954346</v>
       </c>
       <c r="K18" t="n">
-        <v>265.4780334675176</v>
+        <v>339.3380266556233</v>
       </c>
       <c r="L18" t="n">
-        <v>631.2998786376332</v>
+        <v>705.1598718257389</v>
       </c>
       <c r="M18" t="n">
-        <v>1116.33323214786</v>
+        <v>1190.193225335966</v>
       </c>
       <c r="N18" t="n">
-        <v>1627.598878270982</v>
+        <v>1627.598878270984</v>
       </c>
       <c r="O18" t="n">
-        <v>2019.798829055133</v>
+        <v>2019.798829055134</v>
       </c>
       <c r="P18" t="n">
-        <v>2321.89474833083</v>
+        <v>2321.894748330832</v>
       </c>
       <c r="Q18" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116426</v>
       </c>
       <c r="R18" t="n">
-        <v>2479.666378116424</v>
+        <v>2419.882109211371</v>
       </c>
       <c r="S18" t="n">
-        <v>2355.655232872321</v>
+        <v>2267.082622224112</v>
       </c>
       <c r="T18" t="n">
-        <v>2166.970129038306</v>
+        <v>2078.397518390097</v>
       </c>
       <c r="U18" t="n">
-        <v>1948.475336636616</v>
+        <v>1859.902725988407</v>
       </c>
       <c r="V18" t="n">
-        <v>1720.07971408495</v>
+        <v>1631.507103436741</v>
       </c>
       <c r="W18" t="n">
-        <v>1478.76384531826</v>
+        <v>1390.191234670051</v>
       </c>
       <c r="X18" t="n">
-        <v>1280.846857196055</v>
+        <v>1192.274246547846</v>
       </c>
       <c r="Y18" t="n">
-        <v>1088.325530845633</v>
+        <v>999.7529201974245</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="C19" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="D19" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="E19" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="F19" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="G19" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="H19" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="I19" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="J19" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="K19" t="n">
-        <v>83.19751530697189</v>
+        <v>83.19751530697192</v>
       </c>
       <c r="L19" t="n">
         <v>183.8045947072314</v>
       </c>
       <c r="M19" t="n">
-        <v>301.7981008348331</v>
+        <v>301.7981008348332</v>
       </c>
       <c r="N19" t="n">
-        <v>420.2204425844335</v>
+        <v>420.2204425844336</v>
       </c>
       <c r="O19" t="n">
-        <v>518.6840890801232</v>
+        <v>518.6840890801233</v>
       </c>
       <c r="P19" t="n">
-        <v>581.652572808261</v>
+        <v>585.5578919475207</v>
       </c>
       <c r="Q19" t="n">
-        <v>581.652572808261</v>
+        <v>585.5578919475207</v>
       </c>
       <c r="R19" t="n">
-        <v>585.5578919475194</v>
+        <v>585.5578919475207</v>
       </c>
       <c r="S19" t="n">
-        <v>544.5792654046129</v>
+        <v>544.5792654046141</v>
       </c>
       <c r="T19" t="n">
-        <v>484.1314482736978</v>
+        <v>484.1314482736988</v>
       </c>
       <c r="U19" t="n">
-        <v>369.6723448162037</v>
+        <v>369.6723448162045</v>
       </c>
       <c r="V19" t="n">
-        <v>281.6681764280323</v>
+        <v>281.668176428033</v>
       </c>
       <c r="W19" t="n">
-        <v>168.2429109988374</v>
+        <v>168.242910998838</v>
       </c>
       <c r="X19" t="n">
-        <v>109.7215829476192</v>
+        <v>109.7215829476196</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.41756019330229</v>
+        <v>60.4175601933025</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1325.912468951885</v>
+        <v>1325.912468951887</v>
       </c>
       <c r="C20" t="n">
-        <v>1116.709846338098</v>
+        <v>1116.7098463381</v>
       </c>
       <c r="D20" t="n">
-        <v>916.6170176187276</v>
+        <v>916.6170176187294</v>
       </c>
       <c r="E20" t="n">
-        <v>694.5624337782405</v>
+        <v>694.5624337782422</v>
       </c>
       <c r="F20" t="n">
-        <v>453.1423791418168</v>
+        <v>453.1423791418175</v>
       </c>
       <c r="G20" t="n">
-        <v>209.7695286494109</v>
+        <v>209.7695286494115</v>
       </c>
       <c r="H20" t="n">
-        <v>49.67939030012646</v>
+        <v>49.67939030012661</v>
       </c>
       <c r="I20" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="J20" t="n">
-        <v>290.8856582810773</v>
+        <v>242.7233851412967</v>
       </c>
       <c r="K20" t="n">
-        <v>700.3198167718033</v>
+        <v>482.8637571860795</v>
       </c>
       <c r="L20" t="n">
-        <v>1048.205189856749</v>
+        <v>830.7491302710257</v>
       </c>
       <c r="M20" t="n">
-        <v>1441.444356109837</v>
+        <v>1223.988296524114</v>
       </c>
       <c r="N20" t="n">
-        <v>1819.775714797553</v>
+        <v>1602.319655211829</v>
       </c>
       <c r="O20" t="n">
-        <v>2124.780299270387</v>
+        <v>1907.324239684663</v>
       </c>
       <c r="P20" t="n">
-        <v>2352.93719572644</v>
+        <v>2304.77492258666</v>
       </c>
       <c r="Q20" t="n">
-        <v>2447.369449412977</v>
+        <v>2399.207176273197</v>
       </c>
       <c r="R20" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116426</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.168538800184</v>
+        <v>2465.168538800186</v>
       </c>
       <c r="T20" t="n">
-        <v>2413.540728584601</v>
+        <v>2413.540728584603</v>
       </c>
       <c r="U20" t="n">
-        <v>2331.386528352001</v>
+        <v>2331.386528352003</v>
       </c>
       <c r="V20" t="n">
-        <v>2167.138390301348</v>
+        <v>2167.13839030135</v>
       </c>
       <c r="W20" t="n">
-        <v>1977.334596212355</v>
+        <v>1977.334596212357</v>
       </c>
       <c r="X20" t="n">
-        <v>1768.035591787254</v>
+        <v>1768.035591787256</v>
       </c>
       <c r="Y20" t="n">
-        <v>1547.224872416498</v>
+        <v>1547.2248724165</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>928.9060880643725</v>
+        <v>860.5238027544336</v>
       </c>
       <c r="C21" t="n">
-        <v>767.2024153053272</v>
+        <v>698.8201299953884</v>
       </c>
       <c r="D21" t="n">
-        <v>628.3637782955393</v>
+        <v>559.9814929856004</v>
       </c>
       <c r="E21" t="n">
-        <v>481.3357683524106</v>
+        <v>412.9534830424716</v>
       </c>
       <c r="F21" t="n">
-        <v>346.6419703022849</v>
+        <v>278.2596849923459</v>
       </c>
       <c r="G21" t="n">
-        <v>217.9134703255694</v>
+        <v>149.5311850156305</v>
       </c>
       <c r="H21" t="n">
-        <v>117.9756128722675</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="I21" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="J21" t="n">
         <v>109.8474740954346</v>
       </c>
       <c r="K21" t="n">
-        <v>339.3380266556233</v>
+        <v>265.4780334675194</v>
       </c>
       <c r="L21" t="n">
-        <v>705.1598718257389</v>
+        <v>631.2998786376351</v>
       </c>
       <c r="M21" t="n">
-        <v>1190.193225335966</v>
+        <v>1116.333232147862</v>
       </c>
       <c r="N21" t="n">
-        <v>1627.598878270982</v>
+        <v>1627.598878270984</v>
       </c>
       <c r="O21" t="n">
-        <v>2019.798829055133</v>
+        <v>2019.798829055134</v>
       </c>
       <c r="P21" t="n">
-        <v>2321.89474833083</v>
+        <v>2321.894748330832</v>
       </c>
       <c r="Q21" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116426</v>
       </c>
       <c r="R21" t="n">
-        <v>2479.666378116424</v>
+        <v>2440.072434549641</v>
       </c>
       <c r="S21" t="n">
-        <v>2355.655232872321</v>
+        <v>2287.272947562381</v>
       </c>
       <c r="T21" t="n">
-        <v>2166.970129038306</v>
+        <v>2098.587843728367</v>
       </c>
       <c r="U21" t="n">
-        <v>1948.475336636616</v>
+        <v>1880.093051326677</v>
       </c>
       <c r="V21" t="n">
-        <v>1720.07971408495</v>
+        <v>1651.697428775011</v>
       </c>
       <c r="W21" t="n">
-        <v>1478.76384531826</v>
+        <v>1410.381560008321</v>
       </c>
       <c r="X21" t="n">
-        <v>1280.846857196055</v>
+        <v>1212.464571886116</v>
       </c>
       <c r="Y21" t="n">
-        <v>1088.325530845633</v>
+        <v>1019.943245535695</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="C22" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="D22" t="n">
-        <v>53.49864670158685</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="E22" t="n">
-        <v>53.49864670158685</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="F22" t="n">
-        <v>53.49864670158685</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="G22" t="n">
-        <v>53.49864670158685</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="H22" t="n">
-        <v>53.49864670158685</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="I22" t="n">
-        <v>53.49864670158685</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="J22" t="n">
-        <v>53.49864670158685</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="K22" t="n">
-        <v>87.10283444623026</v>
+        <v>83.19751530697192</v>
       </c>
       <c r="L22" t="n">
-        <v>187.7099138464898</v>
+        <v>183.8045947072314</v>
       </c>
       <c r="M22" t="n">
-        <v>305.7034199740915</v>
+        <v>301.7981008348332</v>
       </c>
       <c r="N22" t="n">
-        <v>424.1257617236919</v>
+        <v>420.2204425844336</v>
       </c>
       <c r="O22" t="n">
-        <v>522.5894082193815</v>
+        <v>518.6840890801233</v>
       </c>
       <c r="P22" t="n">
-        <v>585.5578919475194</v>
+        <v>581.6525728082611</v>
       </c>
       <c r="Q22" t="n">
-        <v>585.5578919475194</v>
+        <v>581.6525728082611</v>
       </c>
       <c r="R22" t="n">
-        <v>585.5578919475194</v>
+        <v>585.5578919475204</v>
       </c>
       <c r="S22" t="n">
-        <v>544.5792654046129</v>
+        <v>544.5792654046138</v>
       </c>
       <c r="T22" t="n">
-        <v>484.1314482736978</v>
+        <v>484.1314482736985</v>
       </c>
       <c r="U22" t="n">
-        <v>369.6723448162037</v>
+        <v>369.6723448162043</v>
       </c>
       <c r="V22" t="n">
-        <v>281.6681764280323</v>
+        <v>281.6681764280328</v>
       </c>
       <c r="W22" t="n">
-        <v>168.2429109988374</v>
+        <v>168.2429109988378</v>
       </c>
       <c r="X22" t="n">
-        <v>109.7215829476192</v>
+        <v>109.7215829476195</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.41756019330229</v>
+        <v>60.41756019330244</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1325.912468951885</v>
+        <v>1325.912468951886</v>
       </c>
       <c r="C23" t="n">
-        <v>1116.709846338098</v>
+        <v>1116.7098463381</v>
       </c>
       <c r="D23" t="n">
-        <v>916.6170176187279</v>
+        <v>916.6170176187289</v>
       </c>
       <c r="E23" t="n">
-        <v>694.5624337782408</v>
+        <v>694.5624337782417</v>
       </c>
       <c r="F23" t="n">
-        <v>453.1423791418172</v>
+        <v>453.1423791418179</v>
       </c>
       <c r="G23" t="n">
-        <v>209.7695286494112</v>
+        <v>209.7695286494118</v>
       </c>
       <c r="H23" t="n">
-        <v>49.67939030012646</v>
+        <v>49.67939030012661</v>
       </c>
       <c r="I23" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="J23" t="n">
-        <v>290.8856582810773</v>
+        <v>121.5918718351342</v>
       </c>
       <c r="K23" t="n">
-        <v>652.1575436320209</v>
+        <v>531.02603032586</v>
       </c>
       <c r="L23" t="n">
-        <v>1000.042916716967</v>
+        <v>911.2083321142547</v>
       </c>
       <c r="M23" t="n">
-        <v>1393.282082970055</v>
+        <v>1304.447498367343</v>
       </c>
       <c r="N23" t="n">
-        <v>1771.613441657771</v>
+        <v>1682.778857055058</v>
       </c>
       <c r="O23" t="n">
-        <v>2076.618026130604</v>
+        <v>2157.077227973835</v>
       </c>
       <c r="P23" t="n">
-        <v>2304.774922586658</v>
+        <v>2385.234124429889</v>
       </c>
       <c r="Q23" t="n">
-        <v>2399.207176273195</v>
+        <v>2479.666378116426</v>
       </c>
       <c r="R23" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116426</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.168538800184</v>
+        <v>2465.168538800186</v>
       </c>
       <c r="T23" t="n">
-        <v>2413.540728584601</v>
+        <v>2413.540728584602</v>
       </c>
       <c r="U23" t="n">
-        <v>2331.386528352001</v>
+        <v>2331.386528352002</v>
       </c>
       <c r="V23" t="n">
-        <v>2167.138390301348</v>
+        <v>2167.138390301349</v>
       </c>
       <c r="W23" t="n">
-        <v>1977.334596212355</v>
+        <v>1977.334596212356</v>
       </c>
       <c r="X23" t="n">
-        <v>1768.035591787254</v>
+        <v>1768.035591787255</v>
       </c>
       <c r="Y23" t="n">
-        <v>1547.224872416498</v>
+        <v>1547.224872416499</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>928.9060880643725</v>
+        <v>840.3334774161635</v>
       </c>
       <c r="C24" t="n">
-        <v>767.2024153053272</v>
+        <v>678.6298046571183</v>
       </c>
       <c r="D24" t="n">
-        <v>628.3637782955393</v>
+        <v>539.7911676473303</v>
       </c>
       <c r="E24" t="n">
-        <v>481.3357683524106</v>
+        <v>392.7631577042015</v>
       </c>
       <c r="F24" t="n">
-        <v>346.6419703022849</v>
+        <v>258.0693596540759</v>
       </c>
       <c r="G24" t="n">
-        <v>217.9134703255694</v>
+        <v>129.3408596773605</v>
       </c>
       <c r="H24" t="n">
-        <v>117.9756128722675</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="I24" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="J24" t="n">
-        <v>49.59332756232848</v>
+        <v>109.8474740954346</v>
       </c>
       <c r="K24" t="n">
-        <v>279.0838801225171</v>
+        <v>339.3380266556233</v>
       </c>
       <c r="L24" t="n">
-        <v>644.9057252926327</v>
+        <v>705.1598718257389</v>
       </c>
       <c r="M24" t="n">
-        <v>1129.939078802859</v>
+        <v>1190.193225335966</v>
       </c>
       <c r="N24" t="n">
-        <v>1641.204724925981</v>
+        <v>1701.458871459088</v>
       </c>
       <c r="O24" t="n">
-        <v>2033.404675710132</v>
+        <v>2093.658822243239</v>
       </c>
       <c r="P24" t="n">
-        <v>2335.50059498583</v>
+        <v>2395.754741518936</v>
       </c>
       <c r="Q24" t="n">
-        <v>2479.666378116424</v>
+        <v>2479.666378116426</v>
       </c>
       <c r="R24" t="n">
-        <v>2479.666378116424</v>
+        <v>2419.882109211371</v>
       </c>
       <c r="S24" t="n">
-        <v>2355.655232872321</v>
+        <v>2267.082622224112</v>
       </c>
       <c r="T24" t="n">
-        <v>2166.970129038306</v>
+        <v>2078.397518390097</v>
       </c>
       <c r="U24" t="n">
-        <v>1948.475336636616</v>
+        <v>1859.902725988407</v>
       </c>
       <c r="V24" t="n">
-        <v>1720.07971408495</v>
+        <v>1631.507103436741</v>
       </c>
       <c r="W24" t="n">
-        <v>1478.76384531826</v>
+        <v>1390.191234670051</v>
       </c>
       <c r="X24" t="n">
-        <v>1280.846857196055</v>
+        <v>1192.274246547846</v>
       </c>
       <c r="Y24" t="n">
-        <v>1088.325530845633</v>
+        <v>999.7529201974245</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="C25" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="D25" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="E25" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="F25" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="G25" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="H25" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="I25" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="J25" t="n">
-        <v>49.59332756232848</v>
+        <v>49.59332756232851</v>
       </c>
       <c r="K25" t="n">
-        <v>83.19751530697189</v>
+        <v>83.19751530697192</v>
       </c>
       <c r="L25" t="n">
         <v>183.8045947072314</v>
       </c>
       <c r="M25" t="n">
-        <v>301.7981008348331</v>
+        <v>301.7981008348332</v>
       </c>
       <c r="N25" t="n">
-        <v>420.2204425844335</v>
+        <v>420.2204425844336</v>
       </c>
       <c r="O25" t="n">
-        <v>518.6840890801232</v>
+        <v>522.5894082193826</v>
       </c>
       <c r="P25" t="n">
-        <v>581.652572808261</v>
+        <v>585.5578919475204</v>
       </c>
       <c r="Q25" t="n">
-        <v>581.652572808261</v>
+        <v>585.5578919475204</v>
       </c>
       <c r="R25" t="n">
-        <v>585.5578919475194</v>
+        <v>585.5578919475204</v>
       </c>
       <c r="S25" t="n">
-        <v>544.5792654046129</v>
+        <v>544.5792654046138</v>
       </c>
       <c r="T25" t="n">
-        <v>484.1314482736978</v>
+        <v>484.1314482736985</v>
       </c>
       <c r="U25" t="n">
-        <v>369.6723448162037</v>
+        <v>369.6723448162043</v>
       </c>
       <c r="V25" t="n">
-        <v>281.6681764280323</v>
+        <v>281.6681764280328</v>
       </c>
       <c r="W25" t="n">
-        <v>168.2429109988374</v>
+        <v>168.2429109988378</v>
       </c>
       <c r="X25" t="n">
-        <v>109.7215829476192</v>
+        <v>109.7215829476195</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.41756019330229</v>
+        <v>60.41756019330244</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1467.756073097492</v>
+        <v>1422.858215795354</v>
       </c>
       <c r="C26" t="n">
-        <v>1200.398239186066</v>
+        <v>1155.500381883928</v>
       </c>
       <c r="D26" t="n">
-        <v>942.1501991690557</v>
+        <v>1155.500381883928</v>
       </c>
       <c r="E26" t="n">
-        <v>661.9404040309289</v>
+        <v>875.2905867458012</v>
       </c>
       <c r="F26" t="n">
-        <v>362.3651380968658</v>
+        <v>575.7153208117379</v>
       </c>
       <c r="G26" t="n">
-        <v>60.83707630682017</v>
+        <v>279.0824259537444</v>
       </c>
       <c r="H26" t="n">
         <v>60.83707630682017</v>
@@ -6224,7 +6224,7 @@
         <v>60.83707630682017</v>
       </c>
       <c r="J26" t="n">
-        <v>245.1314844327524</v>
+        <v>245.1314844327525</v>
       </c>
       <c r="K26" t="n">
         <v>597.5677203306618</v>
@@ -6236,10 +6236,10 @@
         <v>1563.283987374949</v>
       </c>
       <c r="N26" t="n">
-        <v>2053.911209915791</v>
+        <v>2053.911209915792</v>
       </c>
       <c r="O26" t="n">
-        <v>2471.211658241752</v>
+        <v>2471.211658241753</v>
       </c>
       <c r="P26" t="n">
         <v>2811.664418550932</v>
@@ -6248,28 +6248,28 @@
         <v>3018.392536090596</v>
       </c>
       <c r="R26" t="n">
-        <v>3041.853815341008</v>
+        <v>3041.853815341009</v>
       </c>
       <c r="S26" t="n">
-        <v>2969.200764727128</v>
+        <v>2969.200764727129</v>
       </c>
       <c r="T26" t="n">
-        <v>2904.315600516045</v>
+        <v>2859.417743213907</v>
       </c>
       <c r="U26" t="n">
-        <v>2764.006188985805</v>
+        <v>2719.108331683667</v>
       </c>
       <c r="V26" t="n">
-        <v>2541.602839637513</v>
+        <v>2496.704982335375</v>
       </c>
       <c r="W26" t="n">
-        <v>2293.64383425088</v>
+        <v>2248.745976948742</v>
       </c>
       <c r="X26" t="n">
-        <v>2026.18961852814</v>
+        <v>1981.291761226002</v>
       </c>
       <c r="Y26" t="n">
-        <v>1747.223687859745</v>
+        <v>1702.325830557607</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>940.1498368088643</v>
+        <v>925.4372193487595</v>
       </c>
       <c r="C27" t="n">
-        <v>778.446164049819</v>
+        <v>763.7335465897143</v>
       </c>
       <c r="D27" t="n">
-        <v>639.6075270400311</v>
+        <v>624.8949095799263</v>
       </c>
       <c r="E27" t="n">
-        <v>492.5795170969022</v>
+        <v>477.8668996367975</v>
       </c>
       <c r="F27" t="n">
-        <v>357.8857190467766</v>
+        <v>343.1731015866719</v>
       </c>
       <c r="G27" t="n">
-        <v>229.1572190700611</v>
+        <v>214.4446016099565</v>
       </c>
       <c r="H27" t="n">
-        <v>129.2193616167592</v>
+        <v>114.5067441566545</v>
       </c>
       <c r="I27" t="n">
         <v>60.83707630682017</v>
@@ -6336,19 +6336,19 @@
         <v>2163.501260322693</v>
       </c>
       <c r="U27" t="n">
-        <v>1959.719085381108</v>
+        <v>1945.006467921003</v>
       </c>
       <c r="V27" t="n">
-        <v>1731.323462829442</v>
+        <v>1716.610845369337</v>
       </c>
       <c r="W27" t="n">
-        <v>1490.007594062752</v>
+        <v>1475.294976602647</v>
       </c>
       <c r="X27" t="n">
-        <v>1292.090605940546</v>
+        <v>1277.377988480441</v>
       </c>
       <c r="Y27" t="n">
-        <v>1099.569279590125</v>
+        <v>1084.85666213002</v>
       </c>
     </row>
     <row r="28">
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.4785731901136</v>
+        <v>358.4785731901137</v>
       </c>
       <c r="C28" t="n">
-        <v>303.4385284075602</v>
+        <v>303.4385284075604</v>
       </c>
       <c r="D28" t="n">
-        <v>264.9425599910892</v>
+        <v>264.9425599910896</v>
       </c>
       <c r="E28" t="n">
-        <v>227.5094705081747</v>
+        <v>227.5094705081749</v>
       </c>
       <c r="F28" t="n">
-        <v>189.6047402897186</v>
+        <v>189.6047402897184</v>
       </c>
       <c r="G28" t="n">
-        <v>135.260916413335</v>
+        <v>135.2609164133349</v>
       </c>
       <c r="H28" t="n">
-        <v>90.46419594837522</v>
+        <v>90.46419594837519</v>
       </c>
       <c r="I28" t="n">
         <v>60.83707630682017</v>
       </c>
       <c r="J28" t="n">
-        <v>114.2708406219777</v>
+        <v>114.2708406219776</v>
       </c>
       <c r="K28" t="n">
-        <v>260.1708922197473</v>
+        <v>260.1708922197477</v>
       </c>
       <c r="L28" t="n">
-        <v>473.0738354731332</v>
+        <v>473.0738354731326</v>
       </c>
       <c r="M28" t="n">
-        <v>703.3632054538614</v>
+        <v>703.363205453861</v>
       </c>
       <c r="N28" t="n">
-        <v>934.0814110565884</v>
+        <v>934.0814110565881</v>
       </c>
       <c r="O28" t="n">
         <v>1144.840921405405</v>
@@ -6415,16 +6415,16 @@
         <v>1141.94796168732</v>
       </c>
       <c r="U28" t="n">
-        <v>969.3336469321869</v>
+        <v>969.3336469321865</v>
       </c>
       <c r="V28" t="n">
         <v>823.1742672463756</v>
       </c>
       <c r="W28" t="n">
-        <v>651.5937905195411</v>
+        <v>651.5937905195412</v>
       </c>
       <c r="X28" t="n">
-        <v>534.9172511706834</v>
+        <v>534.9172511706835</v>
       </c>
       <c r="Y28" t="n">
         <v>427.458017118727</v>
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1744.242696779854</v>
+        <v>1444.667430845791</v>
       </c>
       <c r="C29" t="n">
-        <v>1476.884862868428</v>
+        <v>1177.309596934364</v>
       </c>
       <c r="D29" t="n">
-        <v>1218.636822851418</v>
+        <v>919.0615569173543</v>
       </c>
       <c r="E29" t="n">
-        <v>938.427027713291</v>
+        <v>638.8517617792277</v>
       </c>
       <c r="F29" t="n">
         <v>638.8517617792277</v>
       </c>
       <c r="G29" t="n">
-        <v>337.323699989182</v>
+        <v>337.3236999891821</v>
       </c>
       <c r="H29" t="n">
-        <v>119.0783503422577</v>
+        <v>119.0783503422578</v>
       </c>
       <c r="I29" t="n">
-        <v>60.83707630682011</v>
+        <v>60.83707630682017</v>
       </c>
       <c r="J29" t="n">
-        <v>245.1314844327521</v>
+        <v>245.1314844327525</v>
       </c>
       <c r="K29" t="n">
-        <v>597.5677203306614</v>
+        <v>597.5677203306618</v>
       </c>
       <c r="L29" t="n">
-        <v>1057.748957268735</v>
+        <v>1057.748957268734</v>
       </c>
       <c r="M29" t="n">
         <v>1563.283987374949</v>
@@ -6485,28 +6485,28 @@
         <v>3018.392536090596</v>
       </c>
       <c r="R29" t="n">
-        <v>3041.853815341008</v>
+        <v>3041.853815341009</v>
       </c>
       <c r="S29" t="n">
-        <v>2969.200764727128</v>
+        <v>2969.200764727129</v>
       </c>
       <c r="T29" t="n">
         <v>2859.417743213906</v>
       </c>
       <c r="U29" t="n">
-        <v>2818.089463319875</v>
+        <v>2719.108331683667</v>
       </c>
       <c r="V29" t="n">
-        <v>2818.089463319875</v>
+        <v>2518.514197385812</v>
       </c>
       <c r="W29" t="n">
-        <v>2570.130457933243</v>
+        <v>2270.555191999179</v>
       </c>
       <c r="X29" t="n">
-        <v>2302.676242210503</v>
+        <v>2003.100976276439</v>
       </c>
       <c r="Y29" t="n">
-        <v>2023.710311542107</v>
+        <v>1724.135045608044</v>
       </c>
     </row>
     <row r="30">
@@ -6531,7 +6531,7 @@
         <v>357.8857190467766</v>
       </c>
       <c r="G30" t="n">
-        <v>229.1572190700611</v>
+        <v>229.1572190700612</v>
       </c>
       <c r="H30" t="n">
         <v>129.2193616167592</v>
@@ -6564,10 +6564,10 @@
         <v>2564.770120049021</v>
       </c>
       <c r="R30" t="n">
-        <v>2504.985851143967</v>
+        <v>2519.698468604072</v>
       </c>
       <c r="S30" t="n">
-        <v>2352.186364156707</v>
+        <v>2366.898981616812</v>
       </c>
       <c r="T30" t="n">
         <v>2178.213877782798</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.4785731901133</v>
+        <v>358.4785731901141</v>
       </c>
       <c r="C31" t="n">
-        <v>303.4385284075601</v>
+        <v>303.4385284075609</v>
       </c>
       <c r="D31" t="n">
-        <v>264.9425599910892</v>
+        <v>264.94255999109</v>
       </c>
       <c r="E31" t="n">
-        <v>227.5094705081744</v>
+        <v>227.5094705081752</v>
       </c>
       <c r="F31" t="n">
-        <v>189.6047402897179</v>
+        <v>189.6047402897187</v>
       </c>
       <c r="G31" t="n">
-        <v>135.2609164133341</v>
+        <v>135.2609164133351</v>
       </c>
       <c r="H31" t="n">
-        <v>90.46419594837471</v>
+        <v>90.46419594837525</v>
       </c>
       <c r="I31" t="n">
         <v>60.83707630682017</v>
       </c>
       <c r="J31" t="n">
-        <v>114.2708406219775</v>
+        <v>114.2708406219776</v>
       </c>
       <c r="K31" t="n">
-        <v>260.1708922197476</v>
+        <v>260.1708922197479</v>
       </c>
       <c r="L31" t="n">
-        <v>473.0738354731334</v>
+        <v>473.0738354731342</v>
       </c>
       <c r="M31" t="n">
-        <v>703.3632054538616</v>
+        <v>703.3632054538625</v>
       </c>
       <c r="N31" t="n">
-        <v>934.0814110565884</v>
+        <v>934.0814110565896</v>
       </c>
       <c r="O31" t="n">
-        <v>1144.840921405405</v>
+        <v>1144.840921405406</v>
       </c>
       <c r="P31" t="n">
-        <v>1320.105268986669</v>
+        <v>1320.10526898667</v>
       </c>
       <c r="Q31" t="n">
-        <v>1394.630684586276</v>
+        <v>1394.630684586277</v>
       </c>
       <c r="R31" t="n">
-        <v>1359.684827956421</v>
+        <v>1359.684827956422</v>
       </c>
       <c r="S31" t="n">
-        <v>1260.550990115875</v>
+        <v>1260.550990115876</v>
       </c>
       <c r="T31" t="n">
-        <v>1141.94796168732</v>
+        <v>1141.947961687321</v>
       </c>
       <c r="U31" t="n">
-        <v>969.3336469321868</v>
+        <v>969.3336469321874</v>
       </c>
       <c r="V31" t="n">
-        <v>823.1742672463757</v>
+        <v>823.1742672463764</v>
       </c>
       <c r="W31" t="n">
-        <v>651.5937905195412</v>
+        <v>651.5937905195419</v>
       </c>
       <c r="X31" t="n">
-        <v>534.9172511706834</v>
+        <v>534.917251170684</v>
       </c>
       <c r="Y31" t="n">
-        <v>427.4580171187267</v>
+        <v>427.4580171187275</v>
       </c>
     </row>
     <row r="32">
@@ -6683,55 +6683,55 @@
         <v>1073.941600807428</v>
       </c>
       <c r="E32" t="n">
-        <v>822.2373839813779</v>
+        <v>822.2373839813781</v>
       </c>
       <c r="F32" t="n">
-        <v>551.1676963593916</v>
+        <v>551.1676963593918</v>
       </c>
       <c r="G32" t="n">
         <v>278.145212881423</v>
       </c>
       <c r="H32" t="n">
-        <v>88.4054415465756</v>
+        <v>88.40544154657573</v>
       </c>
       <c r="I32" t="n">
-        <v>58.66974582321499</v>
+        <v>58.66974582321502</v>
       </c>
       <c r="J32" t="n">
-        <v>270.9024712528139</v>
+        <v>193.7267841367496</v>
       </c>
       <c r="K32" t="n">
-        <v>651.2770244543899</v>
+        <v>574.1013373383255</v>
       </c>
       <c r="L32" t="n">
-        <v>1062.220891580062</v>
+        <v>921.9867104232717</v>
       </c>
       <c r="M32" t="n">
-        <v>1455.46005783315</v>
+        <v>1455.460057833153</v>
       </c>
       <c r="N32" t="n">
-        <v>1974.025597677659</v>
+        <v>1974.025597677662</v>
       </c>
       <c r="O32" t="n">
-        <v>2419.264363307287</v>
+        <v>2419.264363307289</v>
       </c>
       <c r="P32" t="n">
-        <v>2647.42125976334</v>
+        <v>2647.421259763342</v>
       </c>
       <c r="Q32" t="n">
-        <v>2882.08769460667</v>
+        <v>2882.087694606672</v>
       </c>
       <c r="R32" t="n">
-        <v>2933.487291160749</v>
+        <v>2933.487291160751</v>
       </c>
       <c r="S32" t="n">
-        <v>2889.339818858947</v>
+        <v>2889.339818858949</v>
       </c>
       <c r="T32" t="n">
-        <v>2808.062375657802</v>
+        <v>2808.062375657803</v>
       </c>
       <c r="U32" t="n">
-        <v>2696.258542439639</v>
+        <v>2696.25854243964</v>
       </c>
       <c r="V32" t="n">
         <v>2502.360771403424</v>
@@ -6740,7 +6740,7 @@
         <v>2282.907344328868</v>
       </c>
       <c r="X32" t="n">
-        <v>2043.958706918204</v>
+        <v>2043.958706918205</v>
       </c>
       <c r="Y32" t="n">
         <v>1793.498354561886</v>
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>937.9825063252591</v>
+        <v>923.2698888651546</v>
       </c>
       <c r="C33" t="n">
-        <v>776.2788335662138</v>
+        <v>761.5662161061093</v>
       </c>
       <c r="D33" t="n">
-        <v>637.4401965564259</v>
+        <v>622.7275790963214</v>
       </c>
       <c r="E33" t="n">
-        <v>490.4121866132971</v>
+        <v>475.6995691531926</v>
       </c>
       <c r="F33" t="n">
-        <v>355.7183885631714</v>
+        <v>341.005771103067</v>
       </c>
       <c r="G33" t="n">
-        <v>226.9898885864559</v>
+        <v>212.2772711263516</v>
       </c>
       <c r="H33" t="n">
-        <v>127.052031133154</v>
+        <v>112.3394136730496</v>
       </c>
       <c r="I33" t="n">
-        <v>58.66974582321499</v>
+        <v>58.66974582321502</v>
       </c>
       <c r="J33" t="n">
-        <v>118.9238923563211</v>
+        <v>118.9238923563212</v>
       </c>
       <c r="K33" t="n">
-        <v>348.4144449165098</v>
+        <v>348.4144449165099</v>
       </c>
       <c r="L33" t="n">
-        <v>714.2362900866254</v>
+        <v>714.2362900866256</v>
       </c>
       <c r="M33" t="n">
         <v>1199.269643596852</v>
@@ -6801,28 +6801,28 @@
         <v>2562.602789565417</v>
       </c>
       <c r="R33" t="n">
-        <v>2517.531138120466</v>
+        <v>2502.818520660362</v>
       </c>
       <c r="S33" t="n">
-        <v>2364.731651133207</v>
+        <v>2350.019033673103</v>
       </c>
       <c r="T33" t="n">
-        <v>2176.046547299192</v>
+        <v>2161.333929839088</v>
       </c>
       <c r="U33" t="n">
-        <v>1957.551754897502</v>
+        <v>1942.839137437398</v>
       </c>
       <c r="V33" t="n">
-        <v>1729.156132345836</v>
+        <v>1714.443514885732</v>
       </c>
       <c r="W33" t="n">
-        <v>1487.840263579146</v>
+        <v>1473.127646119042</v>
       </c>
       <c r="X33" t="n">
-        <v>1289.923275456941</v>
+        <v>1275.210657996837</v>
       </c>
       <c r="Y33" t="n">
-        <v>1097.40194910652</v>
+        <v>1082.689331646415</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.77219452197</v>
+        <v>156.7721945219706</v>
       </c>
       <c r="C34" t="n">
-        <v>130.2377280514937</v>
+        <v>130.2377280514942</v>
       </c>
       <c r="D34" t="n">
-        <v>120.2473379470998</v>
+        <v>120.2473379471002</v>
       </c>
       <c r="E34" t="n">
-        <v>111.319826776262</v>
+        <v>111.3198267762624</v>
       </c>
       <c r="F34" t="n">
-        <v>101.9206748698825</v>
+        <v>101.9206748698828</v>
       </c>
       <c r="G34" t="n">
-        <v>76.08242930557587</v>
+        <v>76.08242930557608</v>
       </c>
       <c r="H34" t="n">
-        <v>59.79128715269308</v>
+        <v>59.79128715269321</v>
       </c>
       <c r="I34" t="n">
-        <v>58.66974582321499</v>
+        <v>58.66974582321502</v>
       </c>
       <c r="J34" t="n">
-        <v>58.66974582321499</v>
+        <v>140.0418274420389</v>
       </c>
       <c r="K34" t="n">
-        <v>232.5081147246517</v>
+        <v>173.6460151866823</v>
       </c>
       <c r="L34" t="n">
-        <v>333.1151941249112</v>
+        <v>398.2919418516188</v>
       </c>
       <c r="M34" t="n">
-        <v>451.108700252513</v>
+        <v>516.2854479792205</v>
       </c>
       <c r="N34" t="n">
-        <v>569.5310420021133</v>
+        <v>634.7077897288209</v>
       </c>
       <c r="O34" t="n">
-        <v>667.9946884978029</v>
+        <v>873.4056173813038</v>
       </c>
       <c r="P34" t="n">
-        <v>833.9103682061664</v>
+        <v>936.3741011094417</v>
       </c>
       <c r="Q34" t="n">
-        <v>936.3741011094403</v>
+        <v>936.3741011094417</v>
       </c>
       <c r="R34" t="n">
-        <v>929.9338227916619</v>
+        <v>929.9338227916631</v>
       </c>
       <c r="S34" t="n">
-        <v>859.3055632631929</v>
+        <v>859.305563263194</v>
       </c>
       <c r="T34" t="n">
-        <v>769.208113146715</v>
+        <v>769.2081131467162</v>
       </c>
       <c r="U34" t="n">
-        <v>625.0993767036583</v>
+        <v>625.0993767036593</v>
       </c>
       <c r="V34" t="n">
-        <v>507.4455753299243</v>
+        <v>507.4455753299253</v>
       </c>
       <c r="W34" t="n">
-        <v>364.3706769151668</v>
+        <v>364.3706769151677</v>
       </c>
       <c r="X34" t="n">
-        <v>276.199715878386</v>
+        <v>276.1997158783868</v>
       </c>
       <c r="Y34" t="n">
-        <v>197.2460601385064</v>
+        <v>197.2460601385071</v>
       </c>
     </row>
     <row r="35">
@@ -6917,40 +6917,40 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D35" t="n">
-        <v>942.7443621478541</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E35" t="n">
-        <v>715.7657787614932</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791958</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G35" t="n">
-        <v>221.124874540916</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575749</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J35" t="n">
-        <v>163.2749745479474</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>403.4153465927301</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L35" t="n">
-        <v>751.3007196776764</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M35" t="n">
-        <v>1144.539885930764</v>
+        <v>1104.364130017708</v>
       </c>
       <c r="N35" t="n">
-        <v>1522.87124461848</v>
+        <v>1482.695488705424</v>
       </c>
       <c r="O35" t="n">
-        <v>1827.875829091314</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P35" t="n">
         <v>2220.500500038399</v>
@@ -7005,19 +7005,19 @@
         <v>333.4366996419378</v>
       </c>
       <c r="G36" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K36" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L36" t="n">
         <v>706.6672186254962</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749096</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C37" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="D37" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E37" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F37" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J37" t="n">
-        <v>51.10067436208574</v>
+        <v>97.31943502373917</v>
       </c>
       <c r="K37" t="n">
-        <v>84.70486210672915</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L37" t="n">
-        <v>185.3119415069887</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M37" t="n">
-        <v>303.3054476345904</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N37" t="n">
-        <v>421.7277893841908</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O37" t="n">
-        <v>520.1914358798805</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P37" t="n">
-        <v>583.1599196080183</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q37" t="n">
-        <v>629.378680269672</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R37" t="n">
-        <v>629.378680269672</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S37" t="n">
-        <v>583.4760541808919</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T37" t="n">
-        <v>518.1042375041029</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U37" t="n">
-        <v>398.721134500735</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666899</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W37" t="n">
-        <v>187.4437015916212</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X37" t="n">
-        <v>123.9983739945292</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433856</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="38">
@@ -7154,46 +7154,46 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D38" t="n">
-        <v>942.7443621478542</v>
+        <v>942.7443621478541</v>
       </c>
       <c r="E38" t="n">
-        <v>715.7657787614933</v>
+        <v>715.7657787614932</v>
       </c>
       <c r="F38" t="n">
-        <v>469.4217245791958</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G38" t="n">
-        <v>221.124874540916</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H38" t="n">
-        <v>56.11073664575749</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J38" t="n">
-        <v>287.5669931259237</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K38" t="n">
-        <v>692.1751396617389</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L38" t="n">
-        <v>1080.236268659741</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M38" t="n">
-        <v>1473.475434912829</v>
+        <v>1104.364130017708</v>
       </c>
       <c r="N38" t="n">
-        <v>1851.806793600545</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O38" t="n">
-        <v>2156.811378073379</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P38" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q38" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>915.700817404025</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C39" t="n">
-        <v>753.9971446449797</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D39" t="n">
-        <v>615.1585076351918</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E39" t="n">
-        <v>468.130497692063</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F39" t="n">
-        <v>333.4366996419374</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G39" t="n">
-        <v>204.7081996652219</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H39" t="n">
-        <v>104.77034221192</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
         <v>51.10067436208574</v>
@@ -7257,7 +7257,7 @@
         <v>340.8453734553806</v>
       </c>
       <c r="L39" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M39" t="n">
         <v>1191.700572135723</v>
@@ -7275,28 +7275,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.249449199232</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S39" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.764858377958</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U39" t="n">
-        <v>1935.270065976268</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V39" t="n">
-        <v>1706.874443424602</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W39" t="n">
-        <v>1465.558574657912</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X39" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y39" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749096</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C40" t="n">
-        <v>52.2132864867035</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D40" t="n">
-        <v>52.2132864867035</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E40" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F40" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G40" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="H40" t="n">
-        <v>59.36731927228436</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I40" t="n">
-        <v>82.50168994950192</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J40" t="n">
-        <v>97.31943502373952</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K40" t="n">
-        <v>130.9236227683829</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L40" t="n">
-        <v>231.5307021686424</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M40" t="n">
-        <v>349.5242082962442</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9465500458446</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O40" t="n">
-        <v>566.4101965415342</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P40" t="n">
-        <v>629.378680269672</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q40" t="n">
-        <v>629.378680269672</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.378680269672</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808919</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041029</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.721134500735</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666899</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W40" t="n">
-        <v>187.4437015916212</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945292</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433856</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1340.513482846826</v>
+        <v>1391.845894793126</v>
       </c>
       <c r="C41" t="n">
-        <v>1120.558836603159</v>
+        <v>1171.89124854946</v>
       </c>
       <c r="D41" t="n">
-        <v>909.7139842539081</v>
+        <v>961.0463962002088</v>
       </c>
       <c r="E41" t="n">
-        <v>676.9073767835406</v>
+        <v>728.2397887298413</v>
       </c>
       <c r="F41" t="n">
-        <v>424.7352985172367</v>
+        <v>476.0677104635372</v>
       </c>
       <c r="G41" t="n">
-        <v>170.6104243949503</v>
+        <v>221.9428363412508</v>
       </c>
       <c r="H41" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
         <v>123.0992186348914</v>
@@ -7415,19 +7415,19 @@
         <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>711.1249637646204</v>
+        <v>869.8806918509179</v>
       </c>
       <c r="M41" t="n">
-        <v>1104.364130017708</v>
+        <v>1263.119858104006</v>
       </c>
       <c r="N41" t="n">
-        <v>1482.695488705424</v>
+        <v>1800.206944878019</v>
       </c>
       <c r="O41" t="n">
-        <v>1845.011968305518</v>
+        <v>2162.523424478113</v>
       </c>
       <c r="P41" t="n">
-        <v>2231.924592847869</v>
+        <v>2390.680320934167</v>
       </c>
       <c r="Q41" t="n">
         <v>2485.112574620704</v>
@@ -7436,25 +7436,25 @@
         <v>2555.033718104287</v>
       </c>
       <c r="S41" t="n">
-        <v>2555.033718104287</v>
+        <v>2529.783855158167</v>
       </c>
       <c r="T41" t="n">
-        <v>2492.653884258824</v>
+        <v>2467.404021312704</v>
       </c>
       <c r="U41" t="n">
-        <v>2399.747660396344</v>
+        <v>2374.497797450223</v>
       </c>
       <c r="V41" t="n">
-        <v>2224.74749871581</v>
+        <v>2199.49763576969</v>
       </c>
       <c r="W41" t="n">
-        <v>2024.191680996937</v>
+        <v>2075.524092943238</v>
       </c>
       <c r="X41" t="n">
-        <v>1804.140652941956</v>
+        <v>1855.473064888256</v>
       </c>
       <c r="Y41" t="n">
-        <v>1572.57790994132</v>
+        <v>1623.91032188762</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.7008174040254</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C42" t="n">
-        <v>753.9971446449802</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D42" t="n">
-        <v>615.1585076351922</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E42" t="n">
-        <v>468.1304976920634</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F42" t="n">
-        <v>333.4366996419378</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G42" t="n">
-        <v>204.7081996652224</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H42" t="n">
-        <v>104.7703422119204</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
         <v>706.6672186254962</v>
@@ -7512,22 +7512,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S42" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U42" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V42" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W42" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X42" t="n">
         <v>1267.641586535707</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>65.67816768550409</v>
+        <v>58.73753147687981</v>
       </c>
       <c r="C43" t="n">
-        <v>58.04131057071005</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D43" t="n">
-        <v>58.04131057071005</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E43" t="n">
-        <v>58.04131057071005</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F43" t="n">
-        <v>58.04131057071005</v>
+        <v>58.0413105707101</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208573</v>
+        <v>53.65527286754949</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208573</v>
+        <v>53.65527286754949</v>
       </c>
       <c r="J43" t="n">
-        <v>51.10067436208573</v>
+        <v>53.65527286754949</v>
       </c>
       <c r="K43" t="n">
-        <v>84.70486210672914</v>
+        <v>87.2594606121929</v>
       </c>
       <c r="L43" t="n">
-        <v>185.3119415069887</v>
+        <v>187.8665400124524</v>
       </c>
       <c r="M43" t="n">
-        <v>303.3054476345904</v>
+        <v>305.8600461400541</v>
       </c>
       <c r="N43" t="n">
-        <v>421.7277893841908</v>
+        <v>424.2823878896545</v>
       </c>
       <c r="O43" t="n">
-        <v>520.1914358798805</v>
+        <v>522.7460343853442</v>
       </c>
       <c r="P43" t="n">
-        <v>675.4494909594883</v>
+        <v>668.5088547508641</v>
       </c>
       <c r="Q43" t="n">
-        <v>675.4494909594883</v>
+        <v>668.5088547508641</v>
       </c>
       <c r="R43" t="n">
-        <v>687.6589211097379</v>
+        <v>680.7182849011136</v>
       </c>
       <c r="S43" t="n">
-        <v>635.9282709369511</v>
+        <v>628.9876347283268</v>
       </c>
       <c r="T43" t="n">
-        <v>564.7284301761556</v>
+        <v>557.7877939675313</v>
       </c>
       <c r="U43" t="n">
-        <v>439.5173030887811</v>
+        <v>432.5766668801569</v>
       </c>
       <c r="V43" t="n">
-        <v>340.7611110707293</v>
+        <v>333.8204748621051</v>
       </c>
       <c r="W43" t="n">
-        <v>216.5838220116541</v>
+        <v>209.6431858030299</v>
       </c>
       <c r="X43" t="n">
-        <v>147.3104703305555</v>
+        <v>140.3698341219313</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.25442394635826</v>
+        <v>80.313787737734</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1315.263619900706</v>
+        <v>1402.683981160805</v>
       </c>
       <c r="C44" t="n">
-        <v>1095.308973657039</v>
+        <v>1182.729334917138</v>
       </c>
       <c r="D44" t="n">
-        <v>884.4641213077882</v>
+        <v>971.8844825678871</v>
       </c>
       <c r="E44" t="n">
-        <v>651.6575138374208</v>
+        <v>739.0778750975196</v>
       </c>
       <c r="F44" t="n">
-        <v>399.4854355711167</v>
+        <v>486.9057968312155</v>
       </c>
       <c r="G44" t="n">
-        <v>145.3605614488303</v>
+        <v>232.7809227089292</v>
       </c>
       <c r="H44" t="n">
-        <v>51.10067436208574</v>
+        <v>61.93876072976409</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J44" t="n">
-        <v>281.8549467211889</v>
+        <v>180.4111137621518</v>
       </c>
       <c r="K44" t="n">
-        <v>521.9953187659717</v>
+        <v>420.5514858069345</v>
       </c>
       <c r="L44" t="n">
-        <v>869.8806918509179</v>
+        <v>768.4368588918808</v>
       </c>
       <c r="M44" t="n">
-        <v>1263.119858104006</v>
+        <v>1320.431753231266</v>
       </c>
       <c r="N44" t="n">
-        <v>1641.451216791721</v>
+        <v>1698.763111918982</v>
       </c>
       <c r="O44" t="n">
-        <v>2105.211529350853</v>
+        <v>2162.523424478113</v>
       </c>
       <c r="P44" t="n">
         <v>2390.680320934167</v>
@@ -7673,7 +7673,7 @@
         <v>2555.033718104287</v>
       </c>
       <c r="S44" t="n">
-        <v>2529.783855158167</v>
+        <v>2529.783855158166</v>
       </c>
       <c r="T44" t="n">
         <v>2467.404021312704</v>
@@ -7691,7 +7691,7 @@
         <v>1778.890789995836</v>
       </c>
       <c r="Y44" t="n">
-        <v>1547.328046995199</v>
+        <v>1634.748408255299</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C45" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D45" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E45" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F45" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G45" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H45" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J45" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L45" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M45" t="n">
         <v>1191.700572135723</v>
@@ -7749,28 +7749,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S45" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U45" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V45" t="n">
-        <v>1706.874443424602</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W45" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X45" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>65.67816768550411</v>
+        <v>58.73753147687979</v>
       </c>
       <c r="C46" t="n">
-        <v>58.04131057071007</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D46" t="n">
-        <v>58.04131057071007</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E46" t="n">
-        <v>58.04131057071007</v>
+        <v>58.04131057071008</v>
       </c>
       <c r="F46" t="n">
-        <v>58.04131057071007</v>
+        <v>58.04131057071008</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I46" t="n">
-        <v>55.70604731547718</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J46" t="n">
-        <v>155.5996758638054</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K46" t="n">
-        <v>189.2038636084488</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L46" t="n">
-        <v>289.8109430087083</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M46" t="n">
-        <v>407.80444913631</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N46" t="n">
-        <v>526.2267908859104</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O46" t="n">
-        <v>624.6904373816001</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P46" t="n">
-        <v>687.6589211097379</v>
+        <v>680.7182849011136</v>
       </c>
       <c r="Q46" t="n">
-        <v>687.6589211097379</v>
+        <v>680.7182849011136</v>
       </c>
       <c r="R46" t="n">
-        <v>687.6589211097379</v>
+        <v>680.7182849011136</v>
       </c>
       <c r="S46" t="n">
-        <v>635.9282709369511</v>
+        <v>628.9876347283268</v>
       </c>
       <c r="T46" t="n">
-        <v>564.7284301761556</v>
+        <v>557.7877939675313</v>
       </c>
       <c r="U46" t="n">
-        <v>439.5173030887811</v>
+        <v>432.5766668801569</v>
       </c>
       <c r="V46" t="n">
-        <v>340.7611110707293</v>
+        <v>333.8204748621051</v>
       </c>
       <c r="W46" t="n">
-        <v>216.5838220116541</v>
+        <v>209.6431858030299</v>
       </c>
       <c r="X46" t="n">
-        <v>147.3104703305555</v>
+        <v>140.3698341219313</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.25442394635827</v>
+        <v>80.31378773773399</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7982,13 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
-        <v>542.9595789155856</v>
+        <v>435.687666090684</v>
       </c>
       <c r="M2" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N2" t="n">
-        <v>461.2790889106763</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
         <v>495.0402356415689</v>
@@ -8064,13 +8064,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>115.4839025616399</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>556.5689907174615</v>
+        <v>462.79787685274</v>
       </c>
       <c r="O3" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
         <v>414.0015992319183</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
         <v>421.3890363425141</v>
@@ -8222,7 +8222,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
-        <v>549.8214830115426</v>
+        <v>477.0956807157806</v>
       </c>
       <c r="N5" t="n">
         <v>568.5510017355793</v>
@@ -8292,10 +8292,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
         <v>482.0924488944969</v>
@@ -8304,16 +8304,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>604.9267112876339</v>
+        <v>371.7837036118779</v>
       </c>
       <c r="O6" t="n">
-        <v>425.7673100134775</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8529,19 +8529,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>482.0924488944969</v>
+        <v>264.6642244265669</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>394.1362801165803</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
@@ -8550,7 +8550,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8784,7 +8784,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>339.3955455065584</v>
+        <v>339.3955455065603</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -9003,10 +9003,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>330.0615286668577</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>198.4944203312457</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9243,7 +9243,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>269.1987543909929</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>548.5390329212619</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9480,7 +9480,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>269.1987543909947</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9489,7 +9489,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>548.5390329212601</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>259.3571946071089</v>
+        <v>198.4944203312457</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -10902,7 +10902,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>343.8048081163523</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -11373,7 +11373,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.92652010774083</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>66.48671597296222</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>259.8365366836553</v>
+        <v>264.7796735655129</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.1762713617116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-4.440892098500626e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C14" t="n">
-        <v>264.6842555723119</v>
+        <v>262.1838617067697</v>
       </c>
       <c r="D14" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
-        <v>57.65886129508203</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.923272671081095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-8.538708137538961e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,13 +24455,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>4.846215262731974</v>
       </c>
       <c r="H26" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>57.6588612950832</v>
+        <v>57.65886129508316</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,7 +24494,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>44.44887872911664</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24734,10 +24734,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>97.99132031984615</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>220.1793158548093</v>
+        <v>21.59112289993344</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>50.81908782683745</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>10.72970550400154</v>
+        <v>10.72970550400157</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>24.99736431665917</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>75.81645214349658</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>75.81645214349628</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>10.72970550400154</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>86.54615764749872</v>
       </c>
     </row>
     <row r="45">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>594048.9447135398</v>
+        <v>594048.94471354</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>594048.94471354</v>
+        <v>594048.9447135401</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>652480.4514200545</v>
+        <v>652480.4514200544</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>652480.4514200544</v>
+        <v>652480.4514200545</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>630953.0261764774</v>
+        <v>630953.0261764772</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>646624.7383936249</v>
+        <v>646624.7383936247</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>690861.6544447631</v>
+        <v>690861.6544447634</v>
       </c>
       <c r="C2" t="n">
-        <v>690861.6544447633</v>
+        <v>690861.6544447638</v>
       </c>
       <c r="D2" t="n">
-        <v>690861.6544447637</v>
+        <v>690861.6544447634</v>
       </c>
       <c r="E2" t="n">
         <v>628993.0002849244</v>
       </c>
       <c r="F2" t="n">
-        <v>628993.0002849245</v>
+        <v>628993.0002849251</v>
       </c>
       <c r="G2" t="n">
-        <v>690861.6544447639</v>
+        <v>690861.6544447638</v>
       </c>
       <c r="H2" t="n">
-        <v>690861.6544447638</v>
+        <v>690861.654444764</v>
       </c>
       <c r="I2" t="n">
-        <v>690861.6544447638</v>
+        <v>690861.654444764</v>
       </c>
       <c r="J2" t="n">
-        <v>668067.9100692113</v>
+        <v>668067.910069211</v>
       </c>
       <c r="K2" t="n">
         <v>668067.9100692112</v>
       </c>
       <c r="L2" t="n">
-        <v>690861.6544447654</v>
+        <v>690861.6544447652</v>
       </c>
       <c r="M2" t="n">
-        <v>690861.654444763</v>
+        <v>690861.6544447629</v>
       </c>
       <c r="N2" t="n">
-        <v>690861.6544447633</v>
+        <v>690861.6544447629</v>
       </c>
       <c r="O2" t="n">
-        <v>684661.4877108973</v>
+        <v>684661.4877108976</v>
       </c>
       <c r="P2" t="n">
         <v>684661.4877108972</v>
@@ -26363,25 +26363,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166962.1560468121</v>
+        <v>166962.1560468122</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8415.473351528439</v>
+        <v>8415.473351528333</v>
       </c>
       <c r="E3" t="n">
-        <v>118993.6101405801</v>
+        <v>118993.6101405802</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>46058.92734773056</v>
+        <v>46058.92734773041</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>68635.34537089552</v>
+        <v>68635.34537089532</v>
       </c>
       <c r="M3" t="n">
-        <v>19582.70168423358</v>
+        <v>19582.70168423371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40069.40998430323</v>
+        <v>40069.4099843033</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193077.2086614256</v>
+        <v>193077.2086614255</v>
       </c>
       <c r="C4" t="n">
-        <v>193077.2086614256</v>
+        <v>193077.2086614255</v>
       </c>
       <c r="D4" t="n">
-        <v>185775.7593332932</v>
+        <v>185775.7593332931</v>
       </c>
       <c r="E4" t="n">
         <v>138310.8849250983</v>
@@ -26430,19 +26430,19 @@
         <v>138310.8849250983</v>
       </c>
       <c r="G4" t="n">
-        <v>177298.4012420843</v>
+        <v>177298.4012420842</v>
       </c>
       <c r="H4" t="n">
         <v>177298.4012420843</v>
       </c>
       <c r="I4" t="n">
-        <v>177298.4012420844</v>
+        <v>177298.4012420843</v>
       </c>
       <c r="J4" t="n">
         <v>161896.3971701088</v>
       </c>
       <c r="K4" t="n">
-        <v>161896.3971701088</v>
+        <v>161896.3971701087</v>
       </c>
       <c r="L4" t="n">
         <v>176099.8977090712</v>
@@ -26467,37 +26467,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63918.86346937148</v>
+        <v>63918.8634693715</v>
       </c>
       <c r="C5" t="n">
-        <v>63918.86346937148</v>
+        <v>63918.8634693715</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>47226.88953147925</v>
+        <v>47226.88953147927</v>
       </c>
       <c r="F5" t="n">
-        <v>47226.88953147925</v>
+        <v>47226.88953147928</v>
       </c>
       <c r="G5" t="n">
-        <v>52067.04948547469</v>
+        <v>52067.04948547471</v>
       </c>
       <c r="H5" t="n">
-        <v>52067.04948547469</v>
+        <v>52067.04948547471</v>
       </c>
       <c r="I5" t="n">
-        <v>52067.04948547469</v>
+        <v>52067.04948547471</v>
       </c>
       <c r="J5" t="n">
-        <v>55772.13857729292</v>
+        <v>55772.13857729294</v>
       </c>
       <c r="K5" t="n">
-        <v>55772.13857729292</v>
+        <v>55772.13857729293</v>
       </c>
       <c r="L5" t="n">
-        <v>56497.43851823981</v>
+        <v>56497.43851823983</v>
       </c>
       <c r="M5" t="n">
         <v>52802.81689264637</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>266903.4262671539</v>
+        <v>266903.4262671542</v>
       </c>
       <c r="C6" t="n">
-        <v>433865.5823139663</v>
+        <v>433865.5823139668</v>
       </c>
       <c r="D6" t="n">
-        <v>431104.3871230307</v>
+        <v>431104.3871230306</v>
       </c>
       <c r="E6" t="n">
-        <v>324461.6156877668</v>
+        <v>324289.7583151004</v>
       </c>
       <c r="F6" t="n">
-        <v>443455.225828347</v>
+        <v>443283.3684556813</v>
       </c>
       <c r="G6" t="n">
-        <v>415437.2763694742</v>
+        <v>415437.2763694745</v>
       </c>
       <c r="H6" t="n">
-        <v>461496.2037172047</v>
+        <v>461496.203717205</v>
       </c>
       <c r="I6" t="n">
-        <v>461496.2037172047</v>
+        <v>461496.203717205</v>
       </c>
       <c r="J6" t="n">
-        <v>238586.8587280536</v>
+        <v>238523.5427714545</v>
       </c>
       <c r="K6" t="n">
-        <v>450399.3743218094</v>
+        <v>450336.0583652108</v>
       </c>
       <c r="L6" t="n">
         <v>389628.9728465588</v>
       </c>
       <c r="M6" t="n">
-        <v>442853.0153276473</v>
+        <v>442853.0153276471</v>
       </c>
       <c r="N6" t="n">
-        <v>462435.7170118813</v>
+        <v>462435.7170118808</v>
       </c>
       <c r="O6" t="n">
-        <v>420565.0867390931</v>
+        <v>420547.8640537213</v>
       </c>
       <c r="P6" t="n">
-        <v>460634.4967233961</v>
+        <v>460617.2740380243</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26695,19 @@
         <v>113.4301655082087</v>
       </c>
       <c r="F2" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="G2" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="H2" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="J2" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="K2" t="n">
         <v>113.4301655082087</v>
@@ -26787,49 +26787,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.2115702199256</v>
+        <v>498.211570219926</v>
       </c>
       <c r="C4" t="n">
-        <v>498.2115702199256</v>
+        <v>498.211570219926</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>619.916594529106</v>
+        <v>619.9165945291064</v>
       </c>
       <c r="F4" t="n">
-        <v>619.916594529106</v>
+        <v>619.9165945291064</v>
       </c>
       <c r="G4" t="n">
-        <v>619.916594529106</v>
+        <v>619.9165945291064</v>
       </c>
       <c r="H4" t="n">
-        <v>619.916594529106</v>
+        <v>619.9165945291064</v>
       </c>
       <c r="I4" t="n">
-        <v>619.916594529106</v>
+        <v>619.9165945291064</v>
       </c>
       <c r="J4" t="n">
-        <v>760.463453835252</v>
+        <v>760.4634538352522</v>
       </c>
       <c r="K4" t="n">
-        <v>760.463453835252</v>
+        <v>760.4634538352522</v>
       </c>
       <c r="L4" t="n">
-        <v>733.3718227901874</v>
+        <v>733.3718227901878</v>
       </c>
       <c r="M4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="N4" t="n">
         <v>638.7584295260717</v>
       </c>
       <c r="O4" t="n">
+        <v>638.7584295260717</v>
+      </c>
+      <c r="P4" t="n">
         <v>638.7584295260716</v>
-      </c>
-      <c r="P4" t="n">
-        <v>638.7584295260717</v>
       </c>
     </row>
   </sheetData>
@@ -26917,34 +26917,34 @@
         <v>113.4301655082087</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>57.5736591846632</v>
+        <v>57.57365918466301</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>55.85650632354555</v>
+        <v>55.85650632354567</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85.79418171361939</v>
+        <v>85.79418171361914</v>
       </c>
       <c r="M2" t="n">
-        <v>24.47837710529197</v>
+        <v>24.47837710529214</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>50.08676248037904</v>
+        <v>50.08676248037912</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.2115702199256</v>
+        <v>498.211570219926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>27.09163104506467</v>
+        <v>27.09163104506433</v>
       </c>
       <c r="E4" t="n">
-        <v>94.61339326411564</v>
+        <v>94.6133932641161</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27154,19 +27154,19 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>57.5736591846632</v>
+        <v>57.57365918466301</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>55.85650632354555</v>
+        <v>55.85650632354567</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>498.2115702199256</v>
+        <v>498.211570219926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.09163104506467</v>
+        <v>27.09163104506433</v>
       </c>
       <c r="M4" t="n">
-        <v>94.61339326411564</v>
+        <v>94.6133932641161</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>140.0395838327804</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
         <v>390.8378626949542</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>223.9878968620168</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27461,22 +27461,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,10 +27509,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>13.4749361597793</v>
+        <v>18.69718685365041</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.719814997536</v>
+        <v>169.1231633243157</v>
       </c>
       <c r="C4" t="n">
         <v>167.9198098429365</v>
@@ -27588,13 +27588,13 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>14.68413607146334</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>192.5475381288231</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
@@ -27625,7 +27625,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>199.9824713211179</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,19 +27743,19 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>95.04510929489031</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>213.2854656563878</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
         <v>150.4889240962943</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>230.8471636524779</v>
@@ -27831,7 +27831,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>198.8768462589055</v>
+        <v>90.9885271458034</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>301.6407289842107</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>196.4951969586345</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27944,7 +27944,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>81.43664713248185</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>116.7927962080469</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28026,13 +28026,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>136.4534115465615</v>
       </c>
       <c r="S10" t="n">
-        <v>44.83061109871244</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -28111,13 +28111,13 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J11" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28126,16 +28126,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>34.34031316763105</v>
       </c>
       <c r="P11" t="n">
-        <v>10.64205129852536</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="R11" t="n">
-        <v>113.4301655082087</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
         <v>113.4301655082087</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.18642621600367</v>
+        <v>19.98842208488684</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28223,7 +28223,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>28.50045832572462</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="C14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="D14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="E14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="G14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="H14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="I14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28354,46 +28354,46 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>10.64205129852547</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="M14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>113.4301655082087</v>
+        <v>34.34031316763077</v>
       </c>
       <c r="R14" t="n">
-        <v>113.4301655082087</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="T14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="U14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="V14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="W14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="X14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Y14" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,10 +28451,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18642621600367</v>
+        <v>19.98842208488684</v>
       </c>
       <c r="S15" t="n">
-        <v>28.50045832572484</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="C16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="D16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="E16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="G16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="H16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="I16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="J16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="K16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="L16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="M16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="N16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="O16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="P16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Q16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="R16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="S16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="T16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="U16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="V16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="W16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="X16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Y16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
     </row>
     <row r="17">
@@ -28561,34 +28561,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="C17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="D17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="E17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="F17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="G17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="H17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="I17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="J17" t="n">
-        <v>171.0038246928719</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>122.3550639456169</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28597,40 +28597,40 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>32.62316030651351</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>171.0038246928719</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="T17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="U17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="V17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="W17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="X17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="Y17" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
     </row>
     <row r="18">
@@ -28649,7 +28649,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>19.98842208488733</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>28.50045832572484</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -28761,34 +28761,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>3.944766807332982</v>
       </c>
       <c r="Q19" t="n">
         <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>151.9713303790973</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="T19" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="U19" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="V19" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="W19" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="X19" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
     </row>
     <row r="20">
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="C20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="D20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="E20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="F20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="G20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="H20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="I20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="J20" t="n">
-        <v>171.0038246928719</v>
+        <v>122.3550639456187</v>
       </c>
       <c r="K20" t="n">
-        <v>171.0038246928719</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,34 +28840,34 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>122.3550639456169</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="S20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="T20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="U20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="V20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="W20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="X20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="Y20" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>19.98842208488684</v>
       </c>
       <c r="S21" t="n">
-        <v>28.50045832572484</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28956,13 +28956,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>155.4859410478466</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
@@ -29004,28 +29004,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>148.0265635717656</v>
+        <v>151.9713303790982</v>
       </c>
       <c r="S22" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="T22" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="U22" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="V22" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="W22" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="X22" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
     </row>
     <row r="23">
@@ -29035,37 +29035,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="C23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="D23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="E23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="F23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="G23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="H23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="I23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="J23" t="n">
-        <v>171.0038246928719</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>122.3550639456169</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>32.62316030651363</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29074,7 +29074,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>171.0038246928719</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="T23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="U23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="V23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="W23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="X23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="Y23" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
     </row>
     <row r="24">
@@ -29132,10 +29132,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>19.98842208488728</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>28.50045832572484</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -29232,7 +29232,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>3.944766807332655</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>151.9713303790973</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="T25" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="U25" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="V25" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="W25" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="X25" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.0038246928719</v>
+        <v>171.0038246928718</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="C26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="D26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="E26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="G26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="H26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="I26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="J26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="K26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="L26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="N26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="O26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="P26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="R26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="S26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="T26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="U26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="V26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="W26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="X26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Y26" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
     </row>
     <row r="27">
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>14.56549128550359</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29408,7 +29408,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>14.56549128550375</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="C28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="D28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="E28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="F28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="G28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="H28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="I28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="J28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="K28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="L28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082075</v>
       </c>
       <c r="M28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="N28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="O28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="P28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Q28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="R28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="S28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="T28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="U28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="V28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="W28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="X28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
       <c r="Y28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082088</v>
       </c>
     </row>
     <row r="29">
@@ -29539,7 +29539,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="L29" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082083</v>
       </c>
       <c r="M29" t="n">
         <v>113.4301655082087</v>
@@ -29636,13 +29636,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>14.56549128550398</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -29770,16 +29770,16 @@
         <v>141.6506880371649</v>
       </c>
       <c r="J32" t="n">
-        <v>141.6506880371649</v>
+        <v>63.69544852598881</v>
       </c>
       <c r="K32" t="n">
         <v>141.6506880371649</v>
       </c>
       <c r="L32" t="n">
-        <v>63.69544852598619</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="N32" t="n">
         <v>141.6506880371649</v>
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>14.56549128550338</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29928,28 +29928,28 @@
         <v>141.6506880371649</v>
       </c>
       <c r="J34" t="n">
-        <v>59.456666199969</v>
+        <v>141.6506880371649</v>
       </c>
       <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>125.2917649138151</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>141.6506880371649</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
       <c r="P34" t="n">
-        <v>103.9870666466926</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>141.6506880371649</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
         <v>141.6506880371649</v>
@@ -30007,7 +30007,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>40.58157162934948</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30022,10 +30022,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="P35" t="n">
-        <v>166.1290651424569</v>
+        <v>40.58157162934941</v>
       </c>
       <c r="Q35" t="n">
         <v>166.1290651424569</v>
@@ -30077,13 +30077,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>14.56549128550328</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30165,7 +30165,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J37" t="n">
-        <v>59.456666199969</v>
+        <v>106.142283029922</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.83758476280113</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
         <v>148.0265635717656</v>
@@ -30244,31 +30244,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K38" t="n">
+      <c r="O38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L38" t="n">
-        <v>40.58157162934987</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>116.9787331327013</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>14.56549128550371</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30387,7 +30387,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>151.6127747272213</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
@@ -30396,13 +30396,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H40" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
-        <v>74.42408546687565</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>45.56176619902594</v>
       </c>
       <c r="Q40" t="n">
         <v>38.15196793284785</v>
@@ -30487,22 +30487,22 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="O41" t="n">
         <v>57.89080315884877</v>
       </c>
       <c r="P41" t="n">
-        <v>160.3593212992904</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>160.3593212992904</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>160.3593212992904</v>
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>14.56549128550325</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30627,13 +30627,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>157.9665920695558</v>
       </c>
       <c r="G43" t="n">
         <v>160.3593212992904</v>
       </c>
       <c r="H43" t="n">
-        <v>157.7789187685189</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="I43" t="n">
         <v>142.7610139533483</v>
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>93.22178924390916</v>
+        <v>83.63064306806275</v>
       </c>
       <c r="Q43" t="n">
         <v>38.15196793284785</v>
@@ -30718,16 +30718,16 @@
         <v>160.3593212992904</v>
       </c>
       <c r="J44" t="n">
+        <v>57.89080315884885</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
         <v>160.3593212992904</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30736,7 +30736,7 @@
         <v>160.3593212992904</v>
       </c>
       <c r="P44" t="n">
-        <v>57.89080315884905</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30836,7 +30836,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -30861,7 +30861,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>157.4996677413694</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
@@ -30873,10 +30873,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I46" t="n">
-        <v>147.4129058254608</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
-        <v>160.3593212992904</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30894,7 +30894,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>98.54380332635894</v>
       </c>
       <c r="Q46" t="n">
         <v>38.15196793284785</v>
@@ -33992,7 +33992,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>-5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -34217,7 +34217,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -34702,13 +34702,13 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
-        <v>351.3993667524709</v>
+        <v>244.1274539275694</v>
       </c>
       <c r="M2" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
-        <v>274.8809747384462</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
         <v>308.0854388614484</v>
@@ -34784,13 +34784,13 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>449.8538496497532</v>
+        <v>356.0827357850317</v>
       </c>
       <c r="O3" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>305.147393207775</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
         <v>242.5660323684674</v>
@@ -34942,7 +34942,7 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
-        <v>362.6651685143834</v>
+        <v>289.9393662186215</v>
       </c>
       <c r="N5" t="n">
         <v>382.1528875633492</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
         <v>369.5170153233491</v>
@@ -35024,16 +35024,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>498.2115702199256</v>
+        <v>265.0685625441696</v>
       </c>
       <c r="O6" t="n">
-        <v>309.9078614023664</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>369.5170153233491</v>
+        <v>152.0887908554191</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>287.421139048872</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
@@ -35270,7 +35270,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>186.155967803972</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
-        <v>355.9961978766762</v>
+        <v>355.9961978766761</v>
       </c>
       <c r="L11" t="n">
-        <v>351.3993667524709</v>
+        <v>464.8295322606797</v>
       </c>
       <c r="M11" t="n">
         <v>397.2112790435232</v>
@@ -35422,16 +35422,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>308.0854388614484</v>
+        <v>342.4257520290795</v>
       </c>
       <c r="P11" t="n">
-        <v>241.1035628702963</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
         <v>208.8162803430946</v>
       </c>
       <c r="R11" t="n">
-        <v>23.69826186910356</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P12" t="n">
-        <v>230.5413394824151</v>
+        <v>230.541339482417</v>
       </c>
       <c r="Q12" t="n">
         <v>159.3652826117113</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823972</v>
       </c>
       <c r="K13" t="n">
         <v>147.373789492697</v>
@@ -35574,19 +35574,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M13" t="n">
-        <v>232.615525233059</v>
+        <v>232.6155252330589</v>
       </c>
       <c r="N13" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O13" t="n">
-        <v>212.8883942917337</v>
+        <v>212.8883942917336</v>
       </c>
       <c r="P13" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536086</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
-        <v>362.0414180509964</v>
+        <v>464.8295322606797</v>
       </c>
       <c r="M14" t="n">
         <v>510.6414445517319</v>
@@ -35665,10 +35665,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>208.8162803430946</v>
+        <v>129.7264280025166</v>
       </c>
       <c r="R14" t="n">
-        <v>23.69826186910356</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
-        <v>218.065359500191</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
         <v>369.5170153233491</v>
@@ -35744,7 +35744,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3652826117113</v>
+        <v>84.75922888635317</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823976</v>
       </c>
       <c r="K16" t="n">
-        <v>147.373789492697</v>
+        <v>147.3737894926971</v>
       </c>
       <c r="L16" t="n">
         <v>215.0534780337234</v>
@@ -35820,10 +35820,10 @@
         <v>212.8883942917337</v>
       </c>
       <c r="P16" t="n">
-        <v>177.0346945265297</v>
+        <v>177.0346945265298</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536091</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>243.7296269886352</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
-        <v>364.9210963140844</v>
+        <v>413.5698570613392</v>
       </c>
       <c r="L17" t="n">
         <v>351.3993667524709</v>
@@ -35893,19 +35893,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>382.1528875633492</v>
+        <v>414.7760478698627</v>
       </c>
       <c r="O17" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>230.4615115717709</v>
+        <v>401.4653362646427</v>
       </c>
       <c r="Q17" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
-        <v>81.27192105376676</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
-        <v>157.2025852243262</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L18" t="n">
         <v>369.5170153233491</v>
@@ -35972,7 +35972,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N18" t="n">
-        <v>516.4299455789112</v>
+        <v>441.8238918535536</v>
       </c>
       <c r="O18" t="n">
         <v>396.1615664486372</v>
@@ -36057,13 +36057,13 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P19" t="n">
-        <v>63.604529018321</v>
+        <v>67.54929582565399</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.944766807331698</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>243.7296269886352</v>
+        <v>195.080866241382</v>
       </c>
       <c r="K20" t="n">
-        <v>413.5698570613393</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
         <v>351.3993667524709</v>
@@ -36136,13 +36136,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>230.4615115717709</v>
+        <v>401.4653362646428</v>
       </c>
       <c r="Q20" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
-        <v>32.62316030651173</v>
+        <v>81.27192105376665</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
-        <v>231.8086389496855</v>
+        <v>157.2025852243281</v>
       </c>
       <c r="L21" t="n">
         <v>369.5170153233491</v>
@@ -36209,7 +36209,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N21" t="n">
-        <v>441.8238918535517</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O21" t="n">
         <v>396.1615664486372</v>
@@ -36258,7 +36258,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3.944766807331691</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -36300,7 +36300,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>3.944766807332617</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>243.7296269886352</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
-        <v>364.9210963140844</v>
+        <v>413.5698570613392</v>
       </c>
       <c r="L23" t="n">
-        <v>351.3993667524709</v>
+        <v>384.0225270589846</v>
       </c>
       <c r="M23" t="n">
         <v>397.2112790435232</v>
@@ -36370,7 +36370,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
-        <v>308.0854388614484</v>
+        <v>479.0892635543203</v>
       </c>
       <c r="P23" t="n">
         <v>230.4615115717709</v>
@@ -36379,7 +36379,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
-        <v>81.27192105376676</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
         <v>231.8086389496855</v>
@@ -36455,7 +36455,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>145.6220031622164</v>
+        <v>84.75922888635317</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36528,7 +36528,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O25" t="n">
-        <v>99.45822878352493</v>
+        <v>103.4029955908576</v>
       </c>
       <c r="P25" t="n">
         <v>63.604529018321</v>
@@ -36537,7 +36537,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>3.944766807331698</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>186.155967803972</v>
+        <v>186.1559678039721</v>
       </c>
       <c r="K26" t="n">
         <v>355.9961978766762</v>
@@ -36601,7 +36601,7 @@
         <v>464.8295322606797</v>
       </c>
       <c r="M26" t="n">
-        <v>510.6414445517319</v>
+        <v>510.641444551732</v>
       </c>
       <c r="N26" t="n">
         <v>495.583053071558</v>
@@ -36613,10 +36613,10 @@
         <v>343.8916770799797</v>
       </c>
       <c r="Q26" t="n">
-        <v>208.8162803430946</v>
+        <v>208.8162803430947</v>
       </c>
       <c r="R26" t="n">
-        <v>23.69826186910356</v>
+        <v>23.6982618691036</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823979</v>
       </c>
       <c r="K28" t="n">
-        <v>147.373789492697</v>
+        <v>147.3737894926971</v>
       </c>
       <c r="L28" t="n">
-        <v>215.0534780337234</v>
+        <v>215.0534780337221</v>
       </c>
       <c r="M28" t="n">
         <v>232.615525233059</v>
@@ -36768,10 +36768,10 @@
         <v>212.8883942917337</v>
       </c>
       <c r="P28" t="n">
-        <v>177.0346945265297</v>
+        <v>177.0346945265298</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536093</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,10 +36832,10 @@
         <v>186.155967803972</v>
       </c>
       <c r="K29" t="n">
-        <v>355.9961978766762</v>
+        <v>355.9961978766761</v>
       </c>
       <c r="L29" t="n">
-        <v>464.8295322606797</v>
+        <v>464.8295322606793</v>
       </c>
       <c r="M29" t="n">
         <v>510.6414445517319</v>
@@ -36853,7 +36853,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R29" t="n">
-        <v>23.69826186910356</v>
+        <v>23.69826186910355</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K31" t="n">
         <v>147.373789492697</v>
@@ -37008,7 +37008,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>214.3764903329282</v>
+        <v>136.4212508217521</v>
       </c>
       <c r="K32" t="n">
-        <v>384.2167204056324</v>
+        <v>384.2167204056323</v>
       </c>
       <c r="L32" t="n">
-        <v>415.0948152784571</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M32" t="n">
-        <v>397.2112790435232</v>
+        <v>538.861967080688</v>
       </c>
       <c r="N32" t="n">
-        <v>523.8035756005141</v>
+        <v>523.803575600514</v>
       </c>
       <c r="O32" t="n">
-        <v>449.7361268986134</v>
+        <v>449.7361268986133</v>
       </c>
       <c r="P32" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q32" t="n">
-        <v>237.0368028720508</v>
+        <v>237.0368028720507</v>
       </c>
       <c r="R32" t="n">
-        <v>51.91878439805976</v>
+        <v>51.91878439805967</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.19402183719586</v>
       </c>
       <c r="K34" t="n">
-        <v>175.5943120216533</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
-        <v>101.6233125255146</v>
+        <v>226.9150774393297</v>
       </c>
       <c r="M34" t="n">
         <v>119.1853597248502</v>
@@ -37239,13 +37239,13 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
-        <v>99.45822878352493</v>
+        <v>241.1089168206898</v>
       </c>
       <c r="P34" t="n">
-        <v>167.5915956650136</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>103.4987201043171</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>113.3073739251128</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
         <v>242.5660323684674</v>
@@ -37318,16 +37318,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P35" t="n">
-        <v>396.5905767142278</v>
+        <v>271.0430832011203</v>
       </c>
       <c r="Q35" t="n">
         <v>261.5151799773428</v>
       </c>
       <c r="R35" t="n">
-        <v>76.39716150335173</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>46.68561682995298</v>
       </c>
       <c r="K37" t="n">
         <v>33.9436239844883</v>
@@ -37482,7 +37482,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.68561682995327</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
-        <v>391.9809383818208</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O38" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P38" t="n">
-        <v>230.4615115717709</v>
+        <v>347.4402447044723</v>
       </c>
       <c r="Q38" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R38" t="n">
-        <v>76.39716150335173</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K39" t="n">
-        <v>231.8086389496855</v>
+        <v>231.8086389496856</v>
       </c>
       <c r="L39" t="n">
         <v>369.5170153233491</v>
@@ -37640,7 +37640,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.3652826117107</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37692,13 +37692,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>8.350146373938003</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>23.36805118910866</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>14.96741926690666</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>33.9436239844883</v>
@@ -37716,7 +37716,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P40" t="n">
-        <v>63.604529018321</v>
+        <v>109.1662952173469</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>351.3993667524709</v>
+        <v>511.7586880517613</v>
       </c>
       <c r="M41" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
-        <v>382.1528875633492</v>
+        <v>542.5122088626396</v>
       </c>
       <c r="O41" t="n">
         <v>365.9762420202972</v>
       </c>
       <c r="P41" t="n">
-        <v>390.8208328710613</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>255.7454361341763</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
-        <v>70.62741766018522</v>
+        <v>70.62741766018519</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M42" t="n">
-        <v>489.93268031336</v>
+        <v>489.9326803133602</v>
       </c>
       <c r="N42" t="n">
         <v>516.4299455789112</v>
@@ -37923,13 +37923,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>7.010743645075106</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2.580402530771465</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37953,13 +37953,13 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P43" t="n">
-        <v>156.8263182622302</v>
+        <v>147.2351720863838</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>12.33275772752484</v>
+        <v>12.33275772752481</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>233.0851235950537</v>
+        <v>130.6166054546121</v>
       </c>
       <c r="K44" t="n">
         <v>242.5660323684674</v>
@@ -38023,7 +38023,7 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
-        <v>397.2112790435232</v>
+        <v>557.5706003428136</v>
       </c>
       <c r="N44" t="n">
         <v>382.1528875633492</v>
@@ -38032,13 +38032,13 @@
         <v>468.4447601607388</v>
       </c>
       <c r="P44" t="n">
-        <v>288.35231473062</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
-        <v>70.62741766018522</v>
+        <v>70.62741766018519</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K45" t="n">
         <v>231.8086389496855</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>7.010743645075106</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38169,10 +38169,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>4.651891872112563</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.9026550993214</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>33.9436239844883</v>
@@ -38190,7 +38190,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P46" t="n">
-        <v>63.604529018321</v>
+        <v>162.1483323446799</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
